--- a/s60_signal/position-01398-601398.xlsx
+++ b/s60_signal/position-01398-601398.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5130" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5136" uniqueCount="505">
   <si>
     <t>trade_time</t>
   </si>
@@ -619,10 +619,10 @@
     <t>2021-06-28</t>
   </si>
   <si>
-    <t>2021-05-14</t>
+    <t>2021-04-30</t>
   </si>
   <si>
-    <t>2021-04-30</t>
+    <t>2021-05-14</t>
   </si>
   <si>
     <t>2021-07-08</t>
@@ -1886,7 +1886,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P1706"/>
+  <dimension ref="A1:P1708"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -83344,10 +83344,10 @@
         <v>3</v>
       </c>
       <c r="B1630" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C1630">
-        <v>3.157119089071633</v>
+        <v>3.114341544664143</v>
       </c>
       <c r="D1630" t="s">
         <v>342</v>
@@ -83359,22 +83359,22 @@
         <v>1</v>
       </c>
       <c r="G1630">
-        <v>0.007422880910928368</v>
+        <v>0.007285658455335858</v>
       </c>
       <c r="H1630">
         <v>0.007233343134885419</v>
       </c>
       <c r="I1630">
-        <v>0.1095377760429486</v>
+        <v>0.1523153204504384</v>
       </c>
       <c r="J1630">
         <v>0.3935204632709165</v>
       </c>
       <c r="K1630">
-        <v>5.42</v>
+        <v>5.3</v>
       </c>
       <c r="L1630">
-        <v>5.29</v>
+        <v>5.2</v>
       </c>
       <c r="M1630">
         <v>5.04</v>
@@ -83394,10 +83394,10 @@
         <v>4</v>
       </c>
       <c r="B1631" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C1631">
-        <v>3.114341544664143</v>
+        <v>3.138786455849162</v>
       </c>
       <c r="D1631" t="s">
         <v>342</v>
@@ -83409,22 +83409,22 @@
         <v>1</v>
       </c>
       <c r="G1631">
-        <v>0.007285658455335858</v>
+        <v>0.007121213544150838</v>
       </c>
       <c r="H1631">
         <v>0.007233343134885419</v>
       </c>
       <c r="I1631">
-        <v>0.1523153204504384</v>
+        <v>0.1278704092654186</v>
       </c>
       <c r="J1631">
         <v>0.3935204632709165</v>
       </c>
       <c r="K1631">
-        <v>5.3</v>
+        <v>5.06</v>
       </c>
       <c r="L1631">
-        <v>5.2</v>
+        <v>5.13</v>
       </c>
       <c r="M1631">
         <v>5.04</v>
@@ -83644,10 +83644,10 @@
         <v>2</v>
       </c>
       <c r="B1636" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C1636">
-        <v>3.143053141206547</v>
+        <v>3.100587019999023</v>
       </c>
       <c r="D1636" t="s">
         <v>342</v>
@@ -83659,22 +83659,22 @@
         <v>1</v>
       </c>
       <c r="G1636">
-        <v>0.007436946858793453</v>
+        <v>0.007299412980000978</v>
       </c>
       <c r="H1636">
         <v>0.007246422909283948</v>
       </c>
       <c r="I1636">
-        <v>0.1105239495095041</v>
+        <v>0.1529900707170286</v>
       </c>
       <c r="J1636">
         <v>0.396115656603958</v>
       </c>
       <c r="K1636">
-        <v>5.42</v>
+        <v>5.3</v>
       </c>
       <c r="L1636">
-        <v>5.29</v>
+        <v>5.2</v>
       </c>
       <c r="M1636">
         <v>5.04</v>
@@ -83694,10 +83694,10 @@
         <v>3</v>
       </c>
       <c r="B1637" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C1637">
-        <v>3.100587019999023</v>
+        <v>3.125654777583972</v>
       </c>
       <c r="D1637" t="s">
         <v>342</v>
@@ -83709,22 +83709,22 @@
         <v>1</v>
       </c>
       <c r="G1637">
-        <v>0.007299412980000978</v>
+        <v>0.007134345222416028</v>
       </c>
       <c r="H1637">
         <v>0.007246422909283948</v>
       </c>
       <c r="I1637">
-        <v>0.1529900707170286</v>
+        <v>0.1279223131320792</v>
       </c>
       <c r="J1637">
         <v>0.396115656603958</v>
       </c>
       <c r="K1637">
-        <v>5.3</v>
+        <v>5.06</v>
       </c>
       <c r="L1637">
-        <v>5.2</v>
+        <v>5.13</v>
       </c>
       <c r="M1637">
         <v>5.04</v>
@@ -83944,10 +83944,10 @@
         <v>2</v>
       </c>
       <c r="B1642" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C1642">
-        <v>3.113732635890595</v>
+        <v>3.07191567716239</v>
       </c>
       <c r="D1642" t="s">
         <v>342</v>
@@ -83959,22 +83959,22 @@
         <v>1</v>
       </c>
       <c r="G1642">
-        <v>0.007466267364109406</v>
+        <v>0.00732808432283761</v>
       </c>
       <c r="H1642">
         <v>0.007273687733415388</v>
       </c>
       <c r="I1642">
-        <v>0.1125796306940177</v>
+        <v>0.1543965894222223</v>
       </c>
       <c r="J1642">
         <v>0.4015253439316246</v>
       </c>
       <c r="K1642">
-        <v>5.42</v>
+        <v>5.3</v>
       </c>
       <c r="L1642">
-        <v>5.29</v>
+        <v>5.2</v>
       </c>
       <c r="M1642">
         <v>5.04</v>
@@ -83994,10 +83994,10 @@
         <v>3</v>
       </c>
       <c r="B1643" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C1643">
-        <v>3.07191567716239</v>
+        <v>3.09828175970598</v>
       </c>
       <c r="D1643" t="s">
         <v>342</v>
@@ -84009,22 +84009,22 @@
         <v>1</v>
       </c>
       <c r="G1643">
-        <v>0.00732808432283761</v>
+        <v>0.00716171824029402</v>
       </c>
       <c r="H1643">
         <v>0.007273687733415388</v>
       </c>
       <c r="I1643">
-        <v>0.1543965894222223</v>
+        <v>0.1280305068786327</v>
       </c>
       <c r="J1643">
         <v>0.4015253439316246</v>
       </c>
       <c r="K1643">
-        <v>5.3</v>
+        <v>5.06</v>
       </c>
       <c r="L1643">
-        <v>5.2</v>
+        <v>5.13</v>
       </c>
       <c r="M1643">
         <v>5.04</v>
@@ -84244,10 +84244,10 @@
         <v>2</v>
       </c>
       <c r="B1648" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C1648">
-        <v>3.075481372527473</v>
+        <v>3.034511305239043</v>
       </c>
       <c r="D1648" t="s">
         <v>342</v>
@@ -84259,22 +84259,22 @@
         <v>1</v>
       </c>
       <c r="G1648">
-        <v>0.007504518627472526</v>
+        <v>0.007365488694760957</v>
       </c>
       <c r="H1648">
         <v>0.007309257173885892</v>
       </c>
       <c r="I1648">
-        <v>0.1152614535866348</v>
+        <v>0.1562315208750653</v>
       </c>
       <c r="J1648">
         <v>0.4085827725964071</v>
       </c>
       <c r="K1648">
-        <v>5.42</v>
+        <v>5.3</v>
       </c>
       <c r="L1648">
-        <v>5.29</v>
+        <v>5.2</v>
       </c>
       <c r="M1648">
         <v>5.04</v>
@@ -84294,10 +84294,10 @@
         <v>3</v>
       </c>
       <c r="B1649" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C1649">
-        <v>3.034511305239043</v>
+        <v>3.06257117066218</v>
       </c>
       <c r="D1649" t="s">
         <v>342</v>
@@ -84309,22 +84309,22 @@
         <v>1</v>
       </c>
       <c r="G1649">
-        <v>0.007365488694760957</v>
+        <v>0.00719742882933782</v>
       </c>
       <c r="H1649">
         <v>0.007309257173885892</v>
       </c>
       <c r="I1649">
-        <v>0.1562315208750653</v>
+        <v>0.1281716554519279</v>
       </c>
       <c r="J1649">
         <v>0.4085827725964071</v>
       </c>
       <c r="K1649">
-        <v>5.3</v>
+        <v>5.06</v>
       </c>
       <c r="L1649">
-        <v>5.2</v>
+        <v>5.13</v>
       </c>
       <c r="M1649">
         <v>5.04</v>
@@ -84344,10 +84344,10 @@
         <v>4</v>
       </c>
       <c r="B1650" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C1650">
-        <v>3.241171964743929</v>
+        <v>3.251601103373748</v>
       </c>
       <c r="D1650" t="s">
         <v>344</v>
@@ -84359,22 +84359,22 @@
         <v>-1</v>
       </c>
       <c r="G1650">
-        <v>0.007318828035256072</v>
+        <v>0.007288398896626251</v>
       </c>
       <c r="H1650">
         <v>0.007196570552078179</v>
       </c>
       <c r="I1650">
-        <v>0.09774251682210799</v>
+        <v>0.1081716554519274</v>
       </c>
       <c r="J1650">
         <v>0.4085827725964071</v>
       </c>
       <c r="K1650">
-        <v>4.99</v>
+        <v>4.94</v>
       </c>
       <c r="L1650">
-        <v>5.28</v>
+        <v>5.27</v>
       </c>
       <c r="M1650">
         <v>4.96</v>
@@ -84544,43 +84544,43 @@
         <v>2</v>
       </c>
       <c r="B1654" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C1654">
-        <v>3.049559506637996</v>
+        <v>3.009163355199517</v>
       </c>
       <c r="D1654" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E1654">
-        <v>3.166638360416144</v>
+        <v>3.132504706369351</v>
       </c>
       <c r="F1654">
         <v>1</v>
       </c>
       <c r="G1654">
-        <v>0.007530440493362004</v>
+        <v>0.007390836644800483</v>
       </c>
       <c r="H1654">
-        <v>0.007333361639583856</v>
+        <v>0.007307495293630649</v>
       </c>
       <c r="I1654">
-        <v>0.117078853778148</v>
+        <v>0.1233413511698336</v>
       </c>
       <c r="J1654">
         <v>0.4133654046793365</v>
       </c>
       <c r="K1654">
-        <v>5.42</v>
+        <v>5.3</v>
       </c>
       <c r="L1654">
-        <v>5.29</v>
+        <v>5.2</v>
       </c>
       <c r="M1654">
-        <v>5.04</v>
+        <v>5.05</v>
       </c>
       <c r="N1654">
-        <v>5.25</v>
+        <v>5.22</v>
       </c>
       <c r="O1654">
         <v>1</v>
@@ -84594,43 +84594,43 @@
         <v>3</v>
       </c>
       <c r="B1655" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C1655">
-        <v>3.009163355199517</v>
+        <v>3.038371052322558</v>
       </c>
       <c r="D1655" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E1655">
-        <v>3.166638360416144</v>
+        <v>3.132504706369351</v>
       </c>
       <c r="F1655">
         <v>1</v>
       </c>
       <c r="G1655">
-        <v>0.007390836644800483</v>
+        <v>0.007221628947677442</v>
       </c>
       <c r="H1655">
-        <v>0.007333361639583856</v>
+        <v>0.007307495293630649</v>
       </c>
       <c r="I1655">
-        <v>0.1574750052166274</v>
+        <v>0.09413365404679297</v>
       </c>
       <c r="J1655">
         <v>0.4133654046793365</v>
       </c>
       <c r="K1655">
-        <v>5.3</v>
+        <v>5.06</v>
       </c>
       <c r="L1655">
-        <v>5.2</v>
+        <v>5.13</v>
       </c>
       <c r="M1655">
-        <v>5.04</v>
+        <v>5.05</v>
       </c>
       <c r="N1655">
-        <v>5.25</v>
+        <v>5.22</v>
       </c>
       <c r="O1655">
         <v>1</v>
@@ -84644,7 +84644,7 @@
         <v>4</v>
       </c>
       <c r="B1656" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C1656">
         <v>3.217306630650111</v>
@@ -84844,43 +84844,43 @@
         <v>2</v>
       </c>
       <c r="B1660" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C1660">
-        <v>3.037163777739444</v>
+        <v>2.997042070483221</v>
       </c>
       <c r="D1660" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E1660">
-        <v>3.155111704761402</v>
+        <v>3.120955180366087</v>
       </c>
       <c r="F1660">
         <v>1</v>
       </c>
       <c r="G1660">
-        <v>0.007542836222260556</v>
+        <v>0.00740295792951678</v>
       </c>
       <c r="H1660">
-        <v>0.007344888295238598</v>
+        <v>0.007319044819633913</v>
       </c>
       <c r="I1660">
-        <v>0.1179479270219574</v>
+        <v>0.1239131098828667</v>
       </c>
       <c r="J1660">
         <v>0.4156524395314679</v>
       </c>
       <c r="K1660">
-        <v>5.42</v>
+        <v>5.3</v>
       </c>
       <c r="L1660">
-        <v>5.29</v>
+        <v>5.2</v>
       </c>
       <c r="M1660">
-        <v>5.04</v>
+        <v>5.05</v>
       </c>
       <c r="N1660">
-        <v>5.25</v>
+        <v>5.22</v>
       </c>
       <c r="O1660">
         <v>1</v>
@@ -84894,43 +84894,43 @@
         <v>3</v>
       </c>
       <c r="B1661" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C1661">
-        <v>2.997042070483221</v>
+        <v>3.026798655970773</v>
       </c>
       <c r="D1661" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E1661">
-        <v>3.155111704761402</v>
+        <v>3.120955180366087</v>
       </c>
       <c r="F1661">
         <v>1</v>
       </c>
       <c r="G1661">
-        <v>0.00740295792951678</v>
+        <v>0.007233201344029228</v>
       </c>
       <c r="H1661">
-        <v>0.007344888295238598</v>
+        <v>0.007319044819633913</v>
       </c>
       <c r="I1661">
-        <v>0.1580696342781813</v>
+        <v>0.09415652439531463</v>
       </c>
       <c r="J1661">
         <v>0.4156524395314679</v>
       </c>
       <c r="K1661">
-        <v>5.3</v>
+        <v>5.06</v>
       </c>
       <c r="L1661">
-        <v>5.2</v>
+        <v>5.13</v>
       </c>
       <c r="M1661">
-        <v>5.04</v>
+        <v>5.05</v>
       </c>
       <c r="N1661">
-        <v>5.25</v>
+        <v>5.22</v>
       </c>
       <c r="O1661">
         <v>1</v>
@@ -84944,7 +84944,7 @@
         <v>4</v>
       </c>
       <c r="B1662" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C1662">
         <v>3.205894326737976</v>
@@ -85144,43 +85144,43 @@
         <v>2</v>
       </c>
       <c r="B1666" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C1666">
-        <v>3.042038763318135</v>
+        <v>3.001809122801866</v>
       </c>
       <c r="D1666" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E1666">
-        <v>3.159644901683284</v>
+        <v>3.125497371726306</v>
       </c>
       <c r="F1666">
         <v>1</v>
       </c>
       <c r="G1666">
-        <v>0.007537961236681865</v>
+        <v>0.007398190877198134</v>
       </c>
       <c r="H1666">
-        <v>0.007340355098316717</v>
+        <v>0.007314502628273694</v>
       </c>
       <c r="I1666">
-        <v>0.117606138365149</v>
+        <v>0.1236882489244397</v>
       </c>
       <c r="J1666">
         <v>0.4147529956977611</v>
       </c>
       <c r="K1666">
-        <v>5.42</v>
+        <v>5.3</v>
       </c>
       <c r="L1666">
-        <v>5.29</v>
+        <v>5.2</v>
       </c>
       <c r="M1666">
-        <v>5.04</v>
+        <v>5.05</v>
       </c>
       <c r="N1666">
-        <v>5.25</v>
+        <v>5.22</v>
       </c>
       <c r="O1666">
         <v>1</v>
@@ -85194,43 +85194,43 @@
         <v>3</v>
       </c>
       <c r="B1667" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C1667">
-        <v>3.001809122801866</v>
+        <v>3.031349841769329</v>
       </c>
       <c r="D1667" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E1667">
-        <v>3.159644901683284</v>
+        <v>3.125497371726306</v>
       </c>
       <c r="F1667">
         <v>1</v>
       </c>
       <c r="G1667">
-        <v>0.007398190877198134</v>
+        <v>0.007228650158230671</v>
       </c>
       <c r="H1667">
-        <v>0.007340355098316717</v>
+        <v>0.007314502628273694</v>
       </c>
       <c r="I1667">
-        <v>0.1578357788814175</v>
+        <v>0.09414752995697739</v>
       </c>
       <c r="J1667">
         <v>0.4147529956977611</v>
       </c>
       <c r="K1667">
-        <v>5.3</v>
+        <v>5.06</v>
       </c>
       <c r="L1667">
-        <v>5.2</v>
+        <v>5.13</v>
       </c>
       <c r="M1667">
-        <v>5.04</v>
+        <v>5.05</v>
       </c>
       <c r="N1667">
-        <v>5.25</v>
+        <v>5.22</v>
       </c>
       <c r="O1667">
         <v>1</v>
@@ -85244,7 +85244,7 @@
         <v>4</v>
       </c>
       <c r="B1668" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C1668">
         <v>3.210382551468172</v>
@@ -85444,43 +85444,43 @@
         <v>2</v>
       </c>
       <c r="B1672" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C1672">
-        <v>3.039990583808121</v>
+        <v>2.999806290439676</v>
       </c>
       <c r="D1672" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E1672">
-        <v>3.157740321474711</v>
+        <v>3.123589012588748</v>
       </c>
       <c r="F1672">
         <v>1</v>
       </c>
       <c r="G1672">
-        <v>0.007540009416191879</v>
+        <v>0.007400193709560324</v>
       </c>
       <c r="H1672">
-        <v>0.00734225967852529</v>
+        <v>0.007316410987411251</v>
       </c>
       <c r="I1672">
-        <v>0.1177497376665895</v>
+        <v>0.1237827221490715</v>
       </c>
       <c r="J1672">
         <v>0.4151308885962876</v>
       </c>
       <c r="K1672">
-        <v>5.42</v>
+        <v>5.3</v>
       </c>
       <c r="L1672">
-        <v>5.29</v>
+        <v>5.2</v>
       </c>
       <c r="M1672">
-        <v>5.04</v>
+        <v>5.05</v>
       </c>
       <c r="N1672">
-        <v>5.25</v>
+        <v>5.22</v>
       </c>
       <c r="O1672">
         <v>1</v>
@@ -85494,43 +85494,43 @@
         <v>3</v>
       </c>
       <c r="B1673" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C1673">
-        <v>2.999806290439676</v>
+        <v>3.029437703702785</v>
       </c>
       <c r="D1673" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E1673">
-        <v>3.157740321474711</v>
+        <v>3.123589012588748</v>
       </c>
       <c r="F1673">
         <v>1</v>
       </c>
       <c r="G1673">
-        <v>0.007400193709560324</v>
+        <v>0.007230562296297215</v>
       </c>
       <c r="H1673">
-        <v>0.00734225967852529</v>
+        <v>0.007316410987411251</v>
       </c>
       <c r="I1673">
-        <v>0.1579340310350346</v>
+        <v>0.09415130888596268</v>
       </c>
       <c r="J1673">
         <v>0.4151308885962876</v>
       </c>
       <c r="K1673">
-        <v>5.3</v>
+        <v>5.06</v>
       </c>
       <c r="L1673">
-        <v>5.2</v>
+        <v>5.13</v>
       </c>
       <c r="M1673">
-        <v>5.04</v>
+        <v>5.05</v>
       </c>
       <c r="N1673">
-        <v>5.25</v>
+        <v>5.22</v>
       </c>
       <c r="O1673">
         <v>1</v>
@@ -85544,7 +85544,7 @@
         <v>4</v>
       </c>
       <c r="B1674" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C1674">
         <v>3.208496865904525</v>
@@ -85641,63 +85641,63 @@
     </row>
     <row r="1676" spans="1:16">
       <c r="A1676" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1676" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="C1676">
-        <v>3.217453869493904</v>
+        <v>3.01360838354478</v>
       </c>
       <c r="D1676" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="E1676">
-        <v>3.100752021902593</v>
+        <v>2.918516236860557</v>
       </c>
       <c r="F1676">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1676">
-        <v>0.007862546130506097</v>
+        <v>0.006766391616455219</v>
       </c>
       <c r="H1676">
-        <v>0.007679247978097406</v>
+        <v>0.006621483763139442</v>
       </c>
       <c r="I1676">
-        <v>0.1167018475913109</v>
+        <v>-0.09509214668422317</v>
       </c>
       <c r="J1676">
-        <v>0.4162269051086194</v>
+        <v>0.4151308885962876</v>
       </c>
       <c r="K1676">
-        <v>5.58</v>
+        <v>4.52</v>
       </c>
       <c r="L1676">
-        <v>5.54</v>
+        <v>4.89</v>
       </c>
       <c r="M1676">
-        <v>5.5</v>
+        <v>4.46</v>
       </c>
       <c r="N1676">
-        <v>5.39</v>
+        <v>4.77</v>
       </c>
       <c r="O1676">
         <v>1</v>
       </c>
       <c r="P1676" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="1677" spans="1:16">
       <c r="A1677" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1677" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C1677">
-        <v>3.224914290953679</v>
+        <v>3.217453869493904</v>
       </c>
       <c r="D1677" t="s">
         <v>337</v>
@@ -85709,22 +85709,22 @@
         <v>-1</v>
       </c>
       <c r="G1677">
-        <v>0.007795085709046321</v>
+        <v>0.007862546130506097</v>
       </c>
       <c r="H1677">
         <v>0.007679247978097406</v>
       </c>
       <c r="I1677">
-        <v>0.1241622690510864</v>
+        <v>0.1167018475913109</v>
       </c>
       <c r="J1677">
         <v>0.4162269051086194</v>
       </c>
       <c r="K1677">
-        <v>5.49</v>
+        <v>5.58</v>
       </c>
       <c r="L1677">
-        <v>5.51</v>
+        <v>5.54</v>
       </c>
       <c r="M1677">
         <v>5.5</v>
@@ -85741,46 +85741,46 @@
     </row>
     <row r="1678" spans="1:16">
       <c r="A1678" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1678" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C1678">
-        <v>3.034050174311283</v>
+        <v>3.224914290953679</v>
       </c>
       <c r="D1678" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E1678">
-        <v>3.152216398252558</v>
+        <v>3.100752021902593</v>
       </c>
       <c r="F1678">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1678">
-        <v>0.007545949825688718</v>
+        <v>0.007795085709046321</v>
       </c>
       <c r="H1678">
-        <v>0.007347783601747442</v>
+        <v>0.007679247978097406</v>
       </c>
       <c r="I1678">
-        <v>0.1181662239412753</v>
+        <v>0.1241622690510864</v>
       </c>
       <c r="J1678">
         <v>0.4162269051086194</v>
       </c>
       <c r="K1678">
-        <v>5.42</v>
+        <v>5.49</v>
       </c>
       <c r="L1678">
-        <v>5.29</v>
+        <v>5.51</v>
       </c>
       <c r="M1678">
-        <v>5.04</v>
+        <v>5.5</v>
       </c>
       <c r="N1678">
-        <v>5.25</v>
+        <v>5.39</v>
       </c>
       <c r="O1678">
         <v>1</v>
@@ -85791,7 +85791,7 @@
     </row>
     <row r="1679" spans="1:16">
       <c r="A1679" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1679" t="s">
         <v>198</v>
@@ -85800,10 +85800,10 @@
         <v>2.993997402924318</v>
       </c>
       <c r="D1679" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E1679">
-        <v>3.152216398252558</v>
+        <v>3.118054129201472</v>
       </c>
       <c r="F1679">
         <v>1</v>
@@ -85812,10 +85812,10 @@
         <v>0.007406002597075682</v>
       </c>
       <c r="H1679">
-        <v>0.007347783601747442</v>
+        <v>0.007321945870798528</v>
       </c>
       <c r="I1679">
-        <v>0.1582189953282405</v>
+        <v>0.1240567262771544</v>
       </c>
       <c r="J1679">
         <v>0.4162269051086194</v>
@@ -85827,10 +85827,10 @@
         <v>5.2</v>
       </c>
       <c r="M1679">
-        <v>5.04</v>
+        <v>5.05</v>
       </c>
       <c r="N1679">
-        <v>5.25</v>
+        <v>5.22</v>
       </c>
       <c r="O1679">
         <v>1</v>
@@ -85841,46 +85841,46 @@
     </row>
     <row r="1680" spans="1:16">
       <c r="A1680" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1680" t="s">
         <v>201</v>
       </c>
       <c r="C1680">
-        <v>3.203027743507989</v>
+        <v>3.023891860150386</v>
       </c>
       <c r="D1680" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E1680">
-        <v>3.105514550661248</v>
+        <v>3.118054129201472</v>
       </c>
       <c r="F1680">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1680">
-        <v>0.007356972256492011</v>
+        <v>0.007236108139849614</v>
       </c>
       <c r="H1680">
-        <v>0.007234485449338753</v>
+        <v>0.007321945870798528</v>
       </c>
       <c r="I1680">
-        <v>0.09751319284674143</v>
+        <v>0.09416226905108616</v>
       </c>
       <c r="J1680">
         <v>0.4162269051086194</v>
       </c>
       <c r="K1680">
-        <v>4.99</v>
+        <v>5.06</v>
       </c>
       <c r="L1680">
-        <v>5.28</v>
+        <v>5.13</v>
       </c>
       <c r="M1680">
-        <v>4.96</v>
+        <v>5.05</v>
       </c>
       <c r="N1680">
-        <v>5.17</v>
+        <v>5.22</v>
       </c>
       <c r="O1680">
         <v>1</v>
@@ -85891,46 +85891,46 @@
     </row>
     <row r="1681" spans="1:16">
       <c r="A1681" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1681" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C1681">
-        <v>3.227895815040575</v>
+        <v>3.203027743507989</v>
       </c>
       <c r="D1681" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E1681">
-        <v>3.356167581755782</v>
+        <v>3.105514550661248</v>
       </c>
       <c r="F1681">
         <v>-1</v>
       </c>
       <c r="G1681">
-        <v>0.007132104184959425</v>
+        <v>0.007356972256492011</v>
       </c>
       <c r="H1681">
-        <v>0.007143832418244218</v>
+        <v>0.007234485449338753</v>
       </c>
       <c r="I1681">
-        <v>-0.1282717667152071</v>
+        <v>0.09751319284674143</v>
       </c>
       <c r="J1681">
         <v>0.4162269051086194</v>
       </c>
       <c r="K1681">
-        <v>4.69</v>
+        <v>4.99</v>
       </c>
       <c r="L1681">
-        <v>5.18</v>
+        <v>5.28</v>
       </c>
       <c r="M1681">
-        <v>4.55</v>
+        <v>4.96</v>
       </c>
       <c r="N1681">
-        <v>5.25</v>
+        <v>5.17</v>
       </c>
       <c r="O1681">
         <v>1</v>
@@ -85941,146 +85941,146 @@
     </row>
     <row r="1682" spans="1:16">
       <c r="A1682" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1682" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C1682">
-        <v>3.202518468224581</v>
+        <v>3.227895815040575</v>
       </c>
       <c r="D1682" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="E1682">
-        <v>3.086030748250035</v>
+        <v>3.356167581755782</v>
       </c>
       <c r="F1682">
         <v>-1</v>
       </c>
       <c r="G1682">
-        <v>0.007877481531775419</v>
+        <v>0.007132104184959425</v>
       </c>
       <c r="H1682">
-        <v>0.007693969251749964</v>
+        <v>0.007143832418244218</v>
       </c>
       <c r="I1682">
-        <v>0.1164877199745464</v>
+        <v>-0.1282717667152071</v>
       </c>
       <c r="J1682">
-        <v>0.4189035003181754</v>
+        <v>0.4162269051086194</v>
       </c>
       <c r="K1682">
-        <v>5.58</v>
+        <v>4.69</v>
       </c>
       <c r="L1682">
-        <v>5.54</v>
+        <v>5.18</v>
       </c>
       <c r="M1682">
-        <v>5.5</v>
+        <v>4.55</v>
       </c>
       <c r="N1682">
-        <v>5.39</v>
+        <v>5.25</v>
       </c>
       <c r="O1682">
         <v>1</v>
       </c>
       <c r="P1682" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1683" spans="1:16">
       <c r="A1683" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B1683" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="C1683">
-        <v>3.210219783253217</v>
+        <v>3.00865438890904</v>
       </c>
       <c r="D1683" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="E1683">
-        <v>3.086030748250035</v>
+        <v>2.913628003215557</v>
       </c>
       <c r="F1683">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1683">
-        <v>0.007809780216746783</v>
+        <v>0.00677134561109096</v>
       </c>
       <c r="H1683">
-        <v>0.007693969251749964</v>
+        <v>0.006626371996784442</v>
       </c>
       <c r="I1683">
-        <v>0.124189035003182</v>
+        <v>-0.09502638569348276</v>
       </c>
       <c r="J1683">
-        <v>0.4189035003181754</v>
+        <v>0.4162269051086194</v>
       </c>
       <c r="K1683">
-        <v>5.49</v>
+        <v>4.52</v>
       </c>
       <c r="L1683">
-        <v>5.51</v>
+        <v>4.89</v>
       </c>
       <c r="M1683">
-        <v>5.5</v>
+        <v>4.46</v>
       </c>
       <c r="N1683">
-        <v>5.39</v>
+        <v>4.77</v>
       </c>
       <c r="O1683">
         <v>1</v>
       </c>
       <c r="P1683" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1684" spans="1:16">
       <c r="A1684" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1684" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C1684">
-        <v>3.019543028275489</v>
+        <v>3.202518468224581</v>
       </c>
       <c r="D1684" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E1684">
-        <v>3.138726358396396</v>
+        <v>3.086030748250035</v>
       </c>
       <c r="F1684">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1684">
-        <v>0.007560456971724511</v>
+        <v>0.007877481531775419</v>
       </c>
       <c r="H1684">
-        <v>0.007361273641603605</v>
+        <v>0.007693969251749964</v>
       </c>
       <c r="I1684">
-        <v>0.1191833301209066</v>
+        <v>0.1164877199745464</v>
       </c>
       <c r="J1684">
         <v>0.4189035003181754</v>
       </c>
       <c r="K1684">
-        <v>5.42</v>
+        <v>5.58</v>
       </c>
       <c r="L1684">
-        <v>5.29</v>
+        <v>5.54</v>
       </c>
       <c r="M1684">
-        <v>5.04</v>
+        <v>5.5</v>
       </c>
       <c r="N1684">
-        <v>5.25</v>
+        <v>5.39</v>
       </c>
       <c r="O1684">
         <v>1</v>
@@ -86091,46 +86091,46 @@
     </row>
     <row r="1685" spans="1:16">
       <c r="A1685" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1685" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C1685">
-        <v>2.97981144831367</v>
+        <v>3.210219783253217</v>
       </c>
       <c r="D1685" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E1685">
-        <v>3.138726358396396</v>
+        <v>3.086030748250035</v>
       </c>
       <c r="F1685">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1685">
-        <v>0.00742018855168633</v>
+        <v>0.007809780216746783</v>
       </c>
       <c r="H1685">
-        <v>0.007361273641603605</v>
+        <v>0.007693969251749964</v>
       </c>
       <c r="I1685">
-        <v>0.1589149100827254</v>
+        <v>0.124189035003182</v>
       </c>
       <c r="J1685">
         <v>0.4189035003181754</v>
       </c>
       <c r="K1685">
-        <v>5.3</v>
+        <v>5.49</v>
       </c>
       <c r="L1685">
-        <v>5.2</v>
+        <v>5.51</v>
       </c>
       <c r="M1685">
-        <v>5.04</v>
+        <v>5.5</v>
       </c>
       <c r="N1685">
-        <v>5.25</v>
+        <v>5.39</v>
       </c>
       <c r="O1685">
         <v>1</v>
@@ -86141,46 +86141,46 @@
     </row>
     <row r="1686" spans="1:16">
       <c r="A1686" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1686" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C1686">
-        <v>3.189671533412305</v>
+        <v>2.97981144831367</v>
       </c>
       <c r="D1686" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E1686">
-        <v>3.09223863842185</v>
+        <v>3.104537323393214</v>
       </c>
       <c r="F1686">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1686">
-        <v>0.007370328466587695</v>
+        <v>0.00742018855168633</v>
       </c>
       <c r="H1686">
-        <v>0.007247761361578149</v>
+        <v>0.007335462676606785</v>
       </c>
       <c r="I1686">
-        <v>0.0974328949904546</v>
+        <v>0.1247258750795437</v>
       </c>
       <c r="J1686">
         <v>0.4189035003181754</v>
       </c>
       <c r="K1686">
-        <v>4.99</v>
+        <v>5.3</v>
       </c>
       <c r="L1686">
-        <v>5.28</v>
+        <v>5.2</v>
       </c>
       <c r="M1686">
-        <v>4.96</v>
+        <v>5.05</v>
       </c>
       <c r="N1686">
-        <v>5.17</v>
+        <v>5.22</v>
       </c>
       <c r="O1686">
         <v>1</v>
@@ -86191,46 +86191,46 @@
     </row>
     <row r="1687" spans="1:16">
       <c r="A1687" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1687" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C1687">
-        <v>3.215342583507757</v>
+        <v>3.010348288390032</v>
       </c>
       <c r="D1687" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E1687">
-        <v>3.343989073552302</v>
+        <v>3.104537323393214</v>
       </c>
       <c r="F1687">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1687">
-        <v>0.007144657416492242</v>
+        <v>0.007249651711609967</v>
       </c>
       <c r="H1687">
-        <v>0.007156010926447698</v>
+        <v>0.007335462676606785</v>
       </c>
       <c r="I1687">
-        <v>-0.1286464900445448</v>
+        <v>0.09418903500318176</v>
       </c>
       <c r="J1687">
         <v>0.4189035003181754</v>
       </c>
       <c r="K1687">
-        <v>4.69</v>
+        <v>5.06</v>
       </c>
       <c r="L1687">
-        <v>5.18</v>
+        <v>5.13</v>
       </c>
       <c r="M1687">
-        <v>4.55</v>
+        <v>5.05</v>
       </c>
       <c r="N1687">
-        <v>5.25</v>
+        <v>5.22</v>
       </c>
       <c r="O1687">
         <v>1</v>
@@ -86241,196 +86241,196 @@
     </row>
     <row r="1688" spans="1:16">
       <c r="A1688" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1688" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="C1688">
-        <v>3.202554071292656</v>
+        <v>3.189671533412305</v>
       </c>
       <c r="D1688" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="E1688">
-        <v>3.086065840879858</v>
+        <v>3.09223863842185</v>
       </c>
       <c r="F1688">
         <v>-1</v>
       </c>
       <c r="G1688">
-        <v>0.007877445928707344</v>
+        <v>0.007370328466587695</v>
       </c>
       <c r="H1688">
-        <v>0.007693934159120142</v>
+        <v>0.007247761361578149</v>
       </c>
       <c r="I1688">
-        <v>0.1164882304127985</v>
+        <v>0.0974328949904546</v>
       </c>
       <c r="J1688">
-        <v>0.4188971198400258</v>
+        <v>0.4189035003181754</v>
       </c>
       <c r="K1688">
-        <v>5.58</v>
+        <v>4.99</v>
       </c>
       <c r="L1688">
-        <v>5.54</v>
+        <v>5.28</v>
       </c>
       <c r="M1688">
-        <v>5.5</v>
+        <v>4.96</v>
       </c>
       <c r="N1688">
-        <v>5.39</v>
+        <v>5.17</v>
       </c>
       <c r="O1688">
         <v>1</v>
       </c>
       <c r="P1688" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="1689" spans="1:16">
       <c r="A1689" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B1689" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C1689">
-        <v>3.210254812078258</v>
+        <v>3.215342583507757</v>
       </c>
       <c r="D1689" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="E1689">
-        <v>3.086065840879858</v>
+        <v>3.343989073552302</v>
       </c>
       <c r="F1689">
         <v>-1</v>
       </c>
       <c r="G1689">
-        <v>0.007809745187921741</v>
+        <v>0.007144657416492242</v>
       </c>
       <c r="H1689">
-        <v>0.007693934159120142</v>
+        <v>0.007156010926447698</v>
       </c>
       <c r="I1689">
-        <v>0.1241889711984006</v>
+        <v>-0.1286464900445448</v>
       </c>
       <c r="J1689">
-        <v>0.4188971198400258</v>
+        <v>0.4189035003181754</v>
       </c>
       <c r="K1689">
-        <v>5.49</v>
+        <v>4.69</v>
       </c>
       <c r="L1689">
-        <v>5.51</v>
+        <v>5.18</v>
       </c>
       <c r="M1689">
-        <v>5.5</v>
+        <v>4.55</v>
       </c>
       <c r="N1689">
-        <v>5.39</v>
+        <v>5.25</v>
       </c>
       <c r="O1689">
         <v>1</v>
       </c>
       <c r="P1689" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="1690" spans="1:16">
       <c r="A1690" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B1690" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="C1690">
-        <v>3.01957761046706</v>
+        <v>2.996556178561847</v>
       </c>
       <c r="D1690" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E1690">
-        <v>3.13875851600627</v>
+        <v>2.901690388580938</v>
       </c>
       <c r="F1690">
         <v>1</v>
       </c>
       <c r="G1690">
-        <v>0.00756042238953294</v>
+        <v>0.006783443821438152</v>
       </c>
       <c r="H1690">
-        <v>0.007361241483993731</v>
+        <v>0.006638309611419061</v>
       </c>
       <c r="I1690">
-        <v>0.1191809055392099</v>
+        <v>-0.09486578998090955</v>
       </c>
       <c r="J1690">
-        <v>0.4188971198400258</v>
+        <v>0.4189035003181754</v>
       </c>
       <c r="K1690">
-        <v>5.42</v>
+        <v>4.52</v>
       </c>
       <c r="L1690">
-        <v>5.29</v>
+        <v>4.89</v>
       </c>
       <c r="M1690">
-        <v>5.04</v>
+        <v>4.46</v>
       </c>
       <c r="N1690">
-        <v>5.25</v>
+        <v>4.77</v>
       </c>
       <c r="O1690">
         <v>1</v>
       </c>
       <c r="P1690" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="1691" spans="1:16">
       <c r="A1691" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1691" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C1691">
-        <v>2.979845264847864</v>
+        <v>3.202554071292656</v>
       </c>
       <c r="D1691" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E1691">
-        <v>3.13875851600627</v>
+        <v>3.086065840879858</v>
       </c>
       <c r="F1691">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1691">
-        <v>0.007420154735152137</v>
+        <v>0.007877445928707344</v>
       </c>
       <c r="H1691">
-        <v>0.007361241483993731</v>
+        <v>0.007693934159120142</v>
       </c>
       <c r="I1691">
-        <v>0.1589132511584066</v>
+        <v>0.1164882304127985</v>
       </c>
       <c r="J1691">
         <v>0.4188971198400258</v>
       </c>
       <c r="K1691">
-        <v>5.3</v>
+        <v>5.58</v>
       </c>
       <c r="L1691">
-        <v>5.2</v>
+        <v>5.54</v>
       </c>
       <c r="M1691">
-        <v>5.04</v>
+        <v>5.5</v>
       </c>
       <c r="N1691">
-        <v>5.25</v>
+        <v>5.39</v>
       </c>
       <c r="O1691">
         <v>1</v>
@@ -86441,46 +86441,46 @@
     </row>
     <row r="1692" spans="1:16">
       <c r="A1692" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1692" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C1692">
-        <v>3.189703371998271</v>
+        <v>3.210254812078258</v>
       </c>
       <c r="D1692" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E1692">
-        <v>3.092270285593472</v>
+        <v>3.086065840879858</v>
       </c>
       <c r="F1692">
         <v>-1</v>
       </c>
       <c r="G1692">
-        <v>0.007370296628001729</v>
+        <v>0.007809745187921741</v>
       </c>
       <c r="H1692">
-        <v>0.007247729714406528</v>
+        <v>0.007693934159120142</v>
       </c>
       <c r="I1692">
-        <v>0.09743308640479942</v>
+        <v>0.1241889711984006</v>
       </c>
       <c r="J1692">
         <v>0.4188971198400258</v>
       </c>
       <c r="K1692">
-        <v>4.99</v>
+        <v>5.49</v>
       </c>
       <c r="L1692">
-        <v>5.28</v>
+        <v>5.51</v>
       </c>
       <c r="M1692">
-        <v>4.96</v>
+        <v>5.5</v>
       </c>
       <c r="N1692">
-        <v>5.17</v>
+        <v>5.39</v>
       </c>
       <c r="O1692">
         <v>1</v>
@@ -86491,46 +86491,46 @@
     </row>
     <row r="1693" spans="1:16">
       <c r="A1693" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1693" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C1693">
-        <v>3.215372507950279</v>
+        <v>2.979845264847864</v>
       </c>
       <c r="D1693" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E1693">
-        <v>3.344018104727883</v>
+        <v>3.10456954480787</v>
       </c>
       <c r="F1693">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1693">
-        <v>0.007144627492049721</v>
+        <v>0.007420154735152137</v>
       </c>
       <c r="H1693">
-        <v>0.007155981895272116</v>
+        <v>0.00733543045519213</v>
       </c>
       <c r="I1693">
-        <v>-0.1286455967776043</v>
+        <v>0.1247242799600059</v>
       </c>
       <c r="J1693">
         <v>0.4188971198400258</v>
       </c>
       <c r="K1693">
-        <v>4.69</v>
+        <v>5.3</v>
       </c>
       <c r="L1693">
-        <v>5.18</v>
+        <v>5.2</v>
       </c>
       <c r="M1693">
-        <v>4.55</v>
+        <v>5.05</v>
       </c>
       <c r="N1693">
-        <v>5.25</v>
+        <v>5.22</v>
       </c>
       <c r="O1693">
         <v>1</v>
@@ -86541,246 +86541,246 @@
     </row>
     <row r="1694" spans="1:16">
       <c r="A1694" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1694" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C1694">
-        <v>3.16581146552529</v>
+        <v>3.01038057360947</v>
       </c>
       <c r="D1694" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="E1694">
-        <v>3.04154154105448</v>
+        <v>3.10456954480787</v>
       </c>
       <c r="F1694">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1694">
-        <v>0.007854188534474709</v>
+        <v>0.00724961942639053</v>
       </c>
       <c r="H1694">
-        <v>0.00773845845894552</v>
+        <v>0.00733543045519213</v>
       </c>
       <c r="I1694">
-        <v>0.1242699244708101</v>
+        <v>0.09418897119839986</v>
       </c>
       <c r="J1694">
-        <v>0.4269924470810036</v>
+        <v>0.4188971198400258</v>
       </c>
       <c r="K1694">
-        <v>5.49</v>
+        <v>5.06</v>
       </c>
       <c r="L1694">
-        <v>5.51</v>
+        <v>5.13</v>
       </c>
       <c r="M1694">
-        <v>5.5</v>
+        <v>5.05</v>
       </c>
       <c r="N1694">
-        <v>5.39</v>
+        <v>5.22</v>
       </c>
       <c r="O1694">
         <v>1</v>
       </c>
       <c r="P1694" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="1695" spans="1:16">
       <c r="A1695" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B1695" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C1695">
-        <v>2.975700936820961</v>
+        <v>3.189703371998271</v>
       </c>
       <c r="D1695" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E1695">
-        <v>3.063688142240932</v>
+        <v>3.092270285593472</v>
       </c>
       <c r="F1695">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1695">
-        <v>0.00760429906317904</v>
+        <v>0.007370296628001729</v>
       </c>
       <c r="H1695">
-        <v>0.007376311857759068</v>
+        <v>0.007247729714406528</v>
       </c>
       <c r="I1695">
-        <v>0.08798720541997129</v>
+        <v>0.09743308640479942</v>
       </c>
       <c r="J1695">
-        <v>0.4269924470810036</v>
+        <v>0.4188971198400258</v>
       </c>
       <c r="K1695">
-        <v>5.42</v>
+        <v>4.99</v>
       </c>
       <c r="L1695">
-        <v>5.29</v>
+        <v>5.28</v>
       </c>
       <c r="M1695">
-        <v>5.05</v>
+        <v>4.96</v>
       </c>
       <c r="N1695">
-        <v>5.22</v>
+        <v>5.17</v>
       </c>
       <c r="O1695">
         <v>1</v>
       </c>
       <c r="P1695" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="1696" spans="1:16">
       <c r="A1696" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B1696" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C1696">
-        <v>2.936940030470681</v>
+        <v>3.215372507950279</v>
       </c>
       <c r="D1696" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E1696">
-        <v>3.063688142240932</v>
+        <v>3.344018104727883</v>
       </c>
       <c r="F1696">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1696">
-        <v>0.007463059969529319</v>
+        <v>0.007144627492049721</v>
       </c>
       <c r="H1696">
-        <v>0.007376311857759068</v>
+        <v>0.007155981895272116</v>
       </c>
       <c r="I1696">
-        <v>0.1267481117702505</v>
+        <v>-0.1286455967776043</v>
       </c>
       <c r="J1696">
-        <v>0.4269924470810036</v>
+        <v>0.4188971198400258</v>
       </c>
       <c r="K1696">
-        <v>5.3</v>
+        <v>4.69</v>
       </c>
       <c r="L1696">
-        <v>5.2</v>
+        <v>5.18</v>
       </c>
       <c r="M1696">
-        <v>5.05</v>
+        <v>4.55</v>
       </c>
       <c r="N1696">
-        <v>5.22</v>
+        <v>5.25</v>
       </c>
       <c r="O1696">
         <v>1</v>
       </c>
       <c r="P1696" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="1697" spans="1:16">
       <c r="A1697" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B1697" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C1697">
-        <v>2.969418217770122</v>
+        <v>2.996585018323084</v>
       </c>
       <c r="D1697" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E1697">
-        <v>3.063688142240932</v>
+        <v>2.901718845513485</v>
       </c>
       <c r="F1697">
         <v>1</v>
       </c>
       <c r="G1697">
-        <v>0.007290581782229878</v>
+        <v>0.006783414981676917</v>
       </c>
       <c r="H1697">
-        <v>0.007376311857759068</v>
+        <v>0.006638281154486514</v>
       </c>
       <c r="I1697">
-        <v>0.09426992447080984</v>
+        <v>-0.09486617280959875</v>
       </c>
       <c r="J1697">
-        <v>0.4269924470810036</v>
+        <v>0.4188971198400258</v>
       </c>
       <c r="K1697">
-        <v>5.06</v>
+        <v>4.52</v>
       </c>
       <c r="L1697">
-        <v>5.13</v>
+        <v>4.89</v>
       </c>
       <c r="M1697">
-        <v>5.05</v>
+        <v>4.46</v>
       </c>
       <c r="N1697">
-        <v>5.22</v>
+        <v>4.77</v>
       </c>
       <c r="O1697">
         <v>1</v>
       </c>
       <c r="P1697" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="1698" spans="1:16">
       <c r="A1698" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1698" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C1698">
-        <v>3.149307689065792</v>
+        <v>3.16581146552529</v>
       </c>
       <c r="D1698" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E1698">
-        <v>3.052117462478222</v>
+        <v>3.04154154105448</v>
       </c>
       <c r="F1698">
         <v>-1</v>
       </c>
       <c r="G1698">
-        <v>0.007410692310934208</v>
+        <v>0.007854188534474709</v>
       </c>
       <c r="H1698">
-        <v>0.007287882537521778</v>
+        <v>0.00773845845894552</v>
       </c>
       <c r="I1698">
-        <v>0.09719022658756993</v>
+        <v>0.1242699244708101</v>
       </c>
       <c r="J1698">
         <v>0.4269924470810036</v>
       </c>
       <c r="K1698">
-        <v>4.99</v>
+        <v>5.49</v>
       </c>
       <c r="L1698">
-        <v>5.28</v>
+        <v>5.51</v>
       </c>
       <c r="M1698">
-        <v>4.96</v>
+        <v>5.5</v>
       </c>
       <c r="N1698">
-        <v>5.17</v>
+        <v>5.39</v>
       </c>
       <c r="O1698">
         <v>1</v>
@@ -86791,46 +86791,46 @@
     </row>
     <row r="1699" spans="1:16">
       <c r="A1699" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B1699" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C1699">
-        <v>3.177405423190093</v>
+        <v>2.936940030470681</v>
       </c>
       <c r="D1699" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E1699">
-        <v>3.307184365781434</v>
+        <v>3.063688142240932</v>
       </c>
       <c r="F1699">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1699">
-        <v>0.007182594576809907</v>
+        <v>0.007463059969529319</v>
       </c>
       <c r="H1699">
-        <v>0.007192815634218567</v>
+        <v>0.007376311857759068</v>
       </c>
       <c r="I1699">
-        <v>-0.1297789425913414</v>
+        <v>0.1267481117702505</v>
       </c>
       <c r="J1699">
         <v>0.4269924470810036</v>
       </c>
       <c r="K1699">
-        <v>4.69</v>
+        <v>5.3</v>
       </c>
       <c r="L1699">
-        <v>5.18</v>
+        <v>5.2</v>
       </c>
       <c r="M1699">
-        <v>4.55</v>
+        <v>5.05</v>
       </c>
       <c r="N1699">
-        <v>5.25</v>
+        <v>5.22</v>
       </c>
       <c r="O1699">
         <v>1</v>
@@ -86841,46 +86841,46 @@
     </row>
     <row r="1700" spans="1:16">
       <c r="A1700" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1700" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C1700">
-        <v>2.959994139193864</v>
+        <v>2.969418217770122</v>
       </c>
       <c r="D1700" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E1700">
-        <v>2.865613686018723</v>
+        <v>3.063688142240932</v>
       </c>
       <c r="F1700">
         <v>1</v>
       </c>
       <c r="G1700">
-        <v>0.006820005860806136</v>
+        <v>0.007290581782229878</v>
       </c>
       <c r="H1700">
-        <v>0.006674386313981276</v>
+        <v>0.007376311857759068</v>
       </c>
       <c r="I1700">
-        <v>-0.09438045317514021</v>
+        <v>0.09426992447080984</v>
       </c>
       <c r="J1700">
         <v>0.4269924470810036</v>
       </c>
       <c r="K1700">
-        <v>4.52</v>
+        <v>5.06</v>
       </c>
       <c r="L1700">
-        <v>4.89</v>
+        <v>5.13</v>
       </c>
       <c r="M1700">
-        <v>4.46</v>
+        <v>5.05</v>
       </c>
       <c r="N1700">
-        <v>4.77</v>
+        <v>5.22</v>
       </c>
       <c r="O1700">
         <v>1</v>
@@ -86891,196 +86891,196 @@
     </row>
     <row r="1701" spans="1:16">
       <c r="A1701" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1701" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C1701">
-        <v>3.186622510496457</v>
+        <v>3.149307689065792</v>
       </c>
       <c r="D1701" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="E1701">
-        <v>3.062390493211387</v>
+        <v>3.052117462478222</v>
       </c>
       <c r="F1701">
         <v>-1</v>
       </c>
       <c r="G1701">
-        <v>0.007833377489503543</v>
+        <v>0.007410692310934208</v>
       </c>
       <c r="H1701">
-        <v>0.007717609506788612</v>
+        <v>0.007287882537521778</v>
       </c>
       <c r="I1701">
-        <v>0.1242320172850704</v>
+        <v>0.09719022658756993</v>
       </c>
       <c r="J1701">
-        <v>0.4232017285070205</v>
+        <v>0.4269924470810036</v>
       </c>
       <c r="K1701">
-        <v>5.49</v>
+        <v>4.99</v>
       </c>
       <c r="L1701">
-        <v>5.51</v>
+        <v>5.28</v>
       </c>
       <c r="M1701">
-        <v>5.5</v>
+        <v>4.96</v>
       </c>
       <c r="N1701">
-        <v>5.39</v>
+        <v>5.17</v>
       </c>
       <c r="O1701">
         <v>1</v>
       </c>
       <c r="P1701" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="1702" spans="1:16">
       <c r="A1702" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B1702" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C1702">
-        <v>2.957030838912791</v>
+        <v>3.177405423190093</v>
       </c>
       <c r="D1702" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E1702">
-        <v>3.082831271039546</v>
+        <v>3.307184365781434</v>
       </c>
       <c r="F1702">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1702">
-        <v>0.007442969161087209</v>
+        <v>0.007182594576809907</v>
       </c>
       <c r="H1702">
-        <v>0.007357168728960453</v>
+        <v>0.007192815634218567</v>
       </c>
       <c r="I1702">
-        <v>0.1258004321267547</v>
+        <v>-0.1297789425913414</v>
       </c>
       <c r="J1702">
-        <v>0.4232017285070205</v>
+        <v>0.4269924470810036</v>
       </c>
       <c r="K1702">
-        <v>5.3</v>
+        <v>4.69</v>
       </c>
       <c r="L1702">
-        <v>5.2</v>
+        <v>5.18</v>
       </c>
       <c r="M1702">
-        <v>5.05</v>
+        <v>4.55</v>
       </c>
       <c r="N1702">
-        <v>5.22</v>
+        <v>5.25</v>
       </c>
       <c r="O1702">
         <v>1</v>
       </c>
       <c r="P1702" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="1703" spans="1:16">
       <c r="A1703" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B1703" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C1703">
-        <v>2.988599253754476</v>
+        <v>2.959994139193864</v>
       </c>
       <c r="D1703" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E1703">
-        <v>3.082831271039546</v>
+        <v>2.865613686018723</v>
       </c>
       <c r="F1703">
         <v>1</v>
       </c>
       <c r="G1703">
-        <v>0.007271400746245524</v>
+        <v>0.006820005860806136</v>
       </c>
       <c r="H1703">
-        <v>0.007357168728960453</v>
+        <v>0.006674386313981276</v>
       </c>
       <c r="I1703">
-        <v>0.09423201728506969</v>
+        <v>-0.09438045317514021</v>
       </c>
       <c r="J1703">
-        <v>0.4232017285070205</v>
+        <v>0.4269924470810036</v>
       </c>
       <c r="K1703">
-        <v>5.06</v>
+        <v>4.52</v>
       </c>
       <c r="L1703">
-        <v>5.13</v>
+        <v>4.89</v>
       </c>
       <c r="M1703">
-        <v>5.05</v>
+        <v>4.46</v>
       </c>
       <c r="N1703">
-        <v>5.22</v>
+        <v>4.77</v>
       </c>
       <c r="O1703">
         <v>1</v>
       </c>
       <c r="P1703" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="1704" spans="1:16">
       <c r="A1704" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1704" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C1704">
-        <v>3.168223374749968</v>
+        <v>3.186622510496457</v>
       </c>
       <c r="D1704" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E1704">
-        <v>3.070919426605178</v>
+        <v>3.062390493211387</v>
       </c>
       <c r="F1704">
         <v>-1</v>
       </c>
       <c r="G1704">
-        <v>0.007391776625250033</v>
+        <v>0.007833377489503543</v>
       </c>
       <c r="H1704">
-        <v>0.007269080573394822</v>
+        <v>0.007717609506788612</v>
       </c>
       <c r="I1704">
-        <v>0.09730394814478949</v>
+        <v>0.1242320172850704</v>
       </c>
       <c r="J1704">
         <v>0.4232017285070205</v>
       </c>
       <c r="K1704">
-        <v>4.99</v>
+        <v>5.49</v>
       </c>
       <c r="L1704">
-        <v>5.28</v>
+        <v>5.51</v>
       </c>
       <c r="M1704">
-        <v>4.96</v>
+        <v>5.5</v>
       </c>
       <c r="N1704">
-        <v>5.17</v>
+        <v>5.39</v>
       </c>
       <c r="O1704">
         <v>1</v>
@@ -87091,46 +87091,46 @@
     </row>
     <row r="1705" spans="1:16">
       <c r="A1705" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1705" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C1705">
-        <v>3.195183893302073</v>
+        <v>2.957030838912791</v>
       </c>
       <c r="D1705" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E1705">
-        <v>3.324432135293057</v>
+        <v>3.082831271039546</v>
       </c>
       <c r="F1705">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1705">
-        <v>0.007164816106697927</v>
+        <v>0.007442969161087209</v>
       </c>
       <c r="H1705">
-        <v>0.007175567864706944</v>
+        <v>0.007357168728960453</v>
       </c>
       <c r="I1705">
-        <v>-0.1292482419909833</v>
+        <v>0.1258004321267547</v>
       </c>
       <c r="J1705">
         <v>0.4232017285070205</v>
       </c>
       <c r="K1705">
-        <v>4.69</v>
+        <v>5.3</v>
       </c>
       <c r="L1705">
-        <v>5.18</v>
+        <v>5.2</v>
       </c>
       <c r="M1705">
-        <v>4.55</v>
+        <v>5.05</v>
       </c>
       <c r="N1705">
-        <v>5.25</v>
+        <v>5.22</v>
       </c>
       <c r="O1705">
         <v>1</v>
@@ -87141,51 +87141,151 @@
     </row>
     <row r="1706" spans="1:16">
       <c r="A1706" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1706" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C1706">
-        <v>2.977128187148267</v>
+        <v>3.168223374749968</v>
       </c>
       <c r="D1706" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E1706">
-        <v>2.882520290858688</v>
+        <v>3.070919426605178</v>
       </c>
       <c r="F1706">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1706">
-        <v>0.006802871812851732</v>
+        <v>0.007391776625250033</v>
       </c>
       <c r="H1706">
-        <v>0.006657479709141312</v>
+        <v>0.007269080573394822</v>
       </c>
       <c r="I1706">
-        <v>-0.09460789628957933</v>
+        <v>0.09730394814478949</v>
       </c>
       <c r="J1706">
         <v>0.4232017285070205</v>
       </c>
       <c r="K1706">
+        <v>4.99</v>
+      </c>
+      <c r="L1706">
+        <v>5.28</v>
+      </c>
+      <c r="M1706">
+        <v>4.96</v>
+      </c>
+      <c r="N1706">
+        <v>5.17</v>
+      </c>
+      <c r="O1706">
+        <v>1</v>
+      </c>
+      <c r="P1706" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:16">
+      <c r="A1707" s="1">
+        <v>3</v>
+      </c>
+      <c r="B1707" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1707">
+        <v>3.195183893302073</v>
+      </c>
+      <c r="D1707" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1707">
+        <v>3.324432135293057</v>
+      </c>
+      <c r="F1707">
+        <v>-1</v>
+      </c>
+      <c r="G1707">
+        <v>0.007164816106697927</v>
+      </c>
+      <c r="H1707">
+        <v>0.007175567864706944</v>
+      </c>
+      <c r="I1707">
+        <v>-0.1292482419909833</v>
+      </c>
+      <c r="J1707">
+        <v>0.4232017285070205</v>
+      </c>
+      <c r="K1707">
+        <v>4.69</v>
+      </c>
+      <c r="L1707">
+        <v>5.18</v>
+      </c>
+      <c r="M1707">
+        <v>4.55</v>
+      </c>
+      <c r="N1707">
+        <v>5.25</v>
+      </c>
+      <c r="O1707">
+        <v>1</v>
+      </c>
+      <c r="P1707" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:16">
+      <c r="A1708" s="1">
+        <v>4</v>
+      </c>
+      <c r="B1708" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1708">
+        <v>2.977128187148267</v>
+      </c>
+      <c r="D1708" t="s">
+        <v>346</v>
+      </c>
+      <c r="E1708">
+        <v>2.882520290858688</v>
+      </c>
+      <c r="F1708">
+        <v>1</v>
+      </c>
+      <c r="G1708">
+        <v>0.006802871812851732</v>
+      </c>
+      <c r="H1708">
+        <v>0.006657479709141312</v>
+      </c>
+      <c r="I1708">
+        <v>-0.09460789628957933</v>
+      </c>
+      <c r="J1708">
+        <v>0.4232017285070205</v>
+      </c>
+      <c r="K1708">
         <v>4.52</v>
       </c>
-      <c r="L1706">
+      <c r="L1708">
         <v>4.89</v>
       </c>
-      <c r="M1706">
+      <c r="M1708">
         <v>4.46</v>
       </c>
-      <c r="N1706">
+      <c r="N1708">
         <v>4.77</v>
       </c>
-      <c r="O1706">
-        <v>1</v>
-      </c>
-      <c r="P1706" t="s">
+      <c r="O1708">
+        <v>1</v>
+      </c>
+      <c r="P1708" t="s">
         <v>504</v>
       </c>
     </row>

--- a/s60_signal/position-01398-601398.xlsx
+++ b/s60_signal/position-01398-601398.xlsx
@@ -85300,10 +85300,10 @@
         <v>3.189671533412305</v>
       </c>
       <c r="D1669" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E1669">
-        <v>3.09223863842185</v>
+        <v>3.073592148377306</v>
       </c>
       <c r="F1669">
         <v>-1</v>
@@ -85312,10 +85312,10 @@
         <v>0.007370328466587695</v>
       </c>
       <c r="H1669">
-        <v>0.007247761361578149</v>
+        <v>0.007346407851622694</v>
       </c>
       <c r="I1669">
-        <v>0.0974328949904546</v>
+        <v>0.116079385034999</v>
       </c>
       <c r="J1669">
         <v>0.4189035003181754</v>
@@ -85327,10 +85327,10 @@
         <v>5.28</v>
       </c>
       <c r="M1669">
-        <v>4.96</v>
+        <v>5.1</v>
       </c>
       <c r="N1669">
-        <v>5.17</v>
+        <v>5.21</v>
       </c>
       <c r="O1669">
         <v>1</v>
@@ -85600,10 +85600,10 @@
         <v>3.189703371998271</v>
       </c>
       <c r="D1675" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E1675">
-        <v>3.092270285593472</v>
+        <v>3.073624688815869</v>
       </c>
       <c r="F1675">
         <v>-1</v>
@@ -85612,10 +85612,10 @@
         <v>0.007370296628001729</v>
       </c>
       <c r="H1675">
-        <v>0.007247729714406528</v>
+        <v>0.007346375311184131</v>
       </c>
       <c r="I1675">
-        <v>0.09743308640479942</v>
+        <v>0.1160786831824026</v>
       </c>
       <c r="J1675">
         <v>0.4188971198400258</v>
@@ -85627,10 +85627,10 @@
         <v>5.28</v>
       </c>
       <c r="M1675">
-        <v>4.96</v>
+        <v>5.1</v>
       </c>
       <c r="N1675">
-        <v>5.17</v>
+        <v>5.21</v>
       </c>
       <c r="O1675">
         <v>1</v>
@@ -85694,43 +85694,43 @@
         <v>5</v>
       </c>
       <c r="B1677" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C1677">
-        <v>2.996585018323084</v>
+        <v>2.964962960719884</v>
       </c>
       <c r="D1677" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E1677">
-        <v>2.901718845513485</v>
+        <v>2.881718845513485</v>
       </c>
       <c r="F1677">
         <v>1</v>
       </c>
       <c r="G1677">
-        <v>0.006783414981676917</v>
+        <v>0.006735037039280116</v>
       </c>
       <c r="H1677">
-        <v>0.006638281154486514</v>
+        <v>0.006618281154486515</v>
       </c>
       <c r="I1677">
-        <v>-0.09486617280959875</v>
+        <v>-0.08324411520639874</v>
       </c>
       <c r="J1677">
         <v>0.4188971198400258</v>
       </c>
       <c r="K1677">
-        <v>4.52</v>
+        <v>4.5</v>
       </c>
       <c r="L1677">
-        <v>4.89</v>
+        <v>4.85</v>
       </c>
       <c r="M1677">
         <v>4.46</v>
       </c>
       <c r="N1677">
-        <v>4.77</v>
+        <v>4.75</v>
       </c>
       <c r="O1677">
         <v>1</v>

--- a/s60_signal/position-01398-601398.xlsx
+++ b/s60_signal/position-01398-601398.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5073" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5073" uniqueCount="506">
   <si>
     <t>trade_time</t>
   </si>
@@ -1063,6 +1063,9 @@
     <t>2021-07-13</t>
   </si>
   <si>
+    <t>2021-07-14</t>
+  </si>
+  <si>
     <t>2016-07-26</t>
   </si>
   <si>
@@ -1986,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2036,7 +2039,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2086,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2136,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2186,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2236,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2286,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2336,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2386,7 +2389,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2436,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2486,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2536,7 +2539,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2586,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2636,7 +2639,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2686,7 +2689,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2736,7 +2739,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2786,7 +2789,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2836,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2886,7 +2889,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2936,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2986,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -3036,7 +3039,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -3086,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -3136,7 +3139,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -3186,7 +3189,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -3236,7 +3239,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -3286,7 +3289,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -3336,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -3386,7 +3389,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -3436,7 +3439,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3486,7 +3489,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3536,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3586,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3636,7 +3639,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3686,7 +3689,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3736,7 +3739,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3786,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -4136,7 +4139,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -4186,7 +4189,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -4236,7 +4239,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -4286,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -4336,7 +4339,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -4386,7 +4389,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -4436,7 +4439,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -4486,7 +4489,7 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -4536,7 +4539,7 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4586,7 +4589,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4636,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4686,7 +4689,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4736,7 +4739,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4786,7 +4789,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4836,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4886,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4936,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4986,7 +4989,7 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -5036,7 +5039,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -5086,7 +5089,7 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -5136,7 +5139,7 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -5186,7 +5189,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -5236,7 +5239,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -5286,7 +5289,7 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -5336,7 +5339,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -5386,7 +5389,7 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -5436,7 +5439,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -5486,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -5536,7 +5539,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5586,7 +5589,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5636,7 +5639,7 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5686,7 +5689,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -6536,7 +6539,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6586,7 +6589,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6636,7 +6639,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6686,7 +6689,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6736,7 +6739,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6786,7 +6789,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6836,7 +6839,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6886,7 +6889,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6936,7 +6939,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6986,7 +6989,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -7036,7 +7039,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -7086,7 +7089,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -7136,7 +7139,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -7186,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -7236,7 +7239,7 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -7286,7 +7289,7 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -7336,7 +7339,7 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -7386,7 +7389,7 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -7436,7 +7439,7 @@
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -7486,7 +7489,7 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -7536,7 +7539,7 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7586,7 +7589,7 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7636,7 +7639,7 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7686,7 +7689,7 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7736,7 +7739,7 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7786,7 +7789,7 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7836,7 +7839,7 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7886,7 +7889,7 @@
         <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7936,7 +7939,7 @@
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7986,7 +7989,7 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -8036,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -8086,7 +8089,7 @@
         <v>1</v>
       </c>
       <c r="P124" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -8136,7 +8139,7 @@
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -8186,7 +8189,7 @@
         <v>1</v>
       </c>
       <c r="P126" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -8236,7 +8239,7 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -8286,7 +8289,7 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -9036,7 +9039,7 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -9086,7 +9089,7 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -9136,7 +9139,7 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -9186,7 +9189,7 @@
         <v>1</v>
       </c>
       <c r="P146" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -9236,7 +9239,7 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -9286,7 +9289,7 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -9336,7 +9339,7 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -10086,7 +10089,7 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -10136,7 +10139,7 @@
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -10186,7 +10189,7 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -10236,7 +10239,7 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -10286,7 +10289,7 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -10336,7 +10339,7 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -10386,7 +10389,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -10436,7 +10439,7 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -11336,7 +11339,7 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -11386,7 +11389,7 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -11436,7 +11439,7 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -11486,7 +11489,7 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -11536,7 +11539,7 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -11586,7 +11589,7 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -11636,7 +11639,7 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -11686,7 +11689,7 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -11736,7 +11739,7 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -11786,7 +11789,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -11836,7 +11839,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -11886,7 +11889,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -11936,7 +11939,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -11986,7 +11989,7 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -12036,7 +12039,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -12086,7 +12089,7 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -12136,7 +12139,7 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -12186,7 +12189,7 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -12236,7 +12239,7 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -12286,7 +12289,7 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -12336,7 +12339,7 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -12386,7 +12389,7 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -12436,7 +12439,7 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -12486,7 +12489,7 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -12536,7 +12539,7 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -12586,7 +12589,7 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -12636,7 +12639,7 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -12686,7 +12689,7 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -12736,7 +12739,7 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -12786,7 +12789,7 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -12836,7 +12839,7 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -12886,7 +12889,7 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -12936,7 +12939,7 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -12986,7 +12989,7 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -13636,7 +13639,7 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="236" spans="1:16">
@@ -13686,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="237" spans="1:16">
@@ -13736,7 +13739,7 @@
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="238" spans="1:16">
@@ -13786,7 +13789,7 @@
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="239" spans="1:16">
@@ -13836,7 +13839,7 @@
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="240" spans="1:16">
@@ -13886,7 +13889,7 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="241" spans="1:16">
@@ -13936,7 +13939,7 @@
         <v>1</v>
       </c>
       <c r="P241" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="242" spans="1:16">
@@ -13986,7 +13989,7 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="243" spans="1:16">
@@ -14036,7 +14039,7 @@
         <v>1</v>
       </c>
       <c r="P243" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="244" spans="1:16">
@@ -14086,7 +14089,7 @@
         <v>1</v>
       </c>
       <c r="P244" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="245" spans="1:16">
@@ -14136,7 +14139,7 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="246" spans="1:16">
@@ -14186,7 +14189,7 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="247" spans="1:16">
@@ -14636,7 +14639,7 @@
         <v>1</v>
       </c>
       <c r="P255" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="256" spans="1:16">
@@ -14686,7 +14689,7 @@
         <v>1</v>
       </c>
       <c r="P256" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="257" spans="1:16">
@@ -14736,7 +14739,7 @@
         <v>1</v>
       </c>
       <c r="P257" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="258" spans="1:16">
@@ -14786,7 +14789,7 @@
         <v>1</v>
       </c>
       <c r="P258" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="259" spans="1:16">
@@ -14836,7 +14839,7 @@
         <v>1</v>
       </c>
       <c r="P259" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="260" spans="1:16">
@@ -14886,7 +14889,7 @@
         <v>1</v>
       </c>
       <c r="P260" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="261" spans="1:16">
@@ -15986,7 +15989,7 @@
         <v>1</v>
       </c>
       <c r="P282" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="283" spans="1:16">
@@ -16036,7 +16039,7 @@
         <v>1</v>
       </c>
       <c r="P283" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="284" spans="1:16">
@@ -16086,7 +16089,7 @@
         <v>1</v>
       </c>
       <c r="P284" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="285" spans="1:16">
@@ -16136,7 +16139,7 @@
         <v>1</v>
       </c>
       <c r="P285" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="286" spans="1:16">
@@ -16186,7 +16189,7 @@
         <v>1</v>
       </c>
       <c r="P286" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="287" spans="1:16">
@@ -16236,7 +16239,7 @@
         <v>1</v>
       </c>
       <c r="P287" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="288" spans="1:16">
@@ -16286,7 +16289,7 @@
         <v>1</v>
       </c>
       <c r="P288" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="289" spans="1:16">
@@ -16336,7 +16339,7 @@
         <v>1</v>
       </c>
       <c r="P289" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="290" spans="1:16">
@@ -16386,7 +16389,7 @@
         <v>1</v>
       </c>
       <c r="P290" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="291" spans="1:16">
@@ -16436,7 +16439,7 @@
         <v>1</v>
       </c>
       <c r="P291" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="292" spans="1:16">
@@ -16486,7 +16489,7 @@
         <v>1</v>
       </c>
       <c r="P292" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="293" spans="1:16">
@@ -16536,7 +16539,7 @@
         <v>1</v>
       </c>
       <c r="P293" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="294" spans="1:16">
@@ -16586,7 +16589,7 @@
         <v>1</v>
       </c>
       <c r="P294" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="295" spans="1:16">
@@ -16636,7 +16639,7 @@
         <v>1</v>
       </c>
       <c r="P295" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="296" spans="1:16">
@@ -16686,7 +16689,7 @@
         <v>1</v>
       </c>
       <c r="P296" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="297" spans="1:16">
@@ -16736,7 +16739,7 @@
         <v>1</v>
       </c>
       <c r="P297" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="298" spans="1:16">
@@ -16786,7 +16789,7 @@
         <v>1</v>
       </c>
       <c r="P298" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="299" spans="1:16">
@@ -16836,7 +16839,7 @@
         <v>1</v>
       </c>
       <c r="P299" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="300" spans="1:16">
@@ -16886,7 +16889,7 @@
         <v>1</v>
       </c>
       <c r="P300" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="301" spans="1:16">
@@ -16936,7 +16939,7 @@
         <v>1</v>
       </c>
       <c r="P301" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="302" spans="1:16">
@@ -16986,7 +16989,7 @@
         <v>1</v>
       </c>
       <c r="P302" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="303" spans="1:16">
@@ -17036,7 +17039,7 @@
         <v>1</v>
       </c>
       <c r="P303" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="304" spans="1:16">
@@ -17086,7 +17089,7 @@
         <v>1</v>
       </c>
       <c r="P304" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="305" spans="1:16">
@@ -17136,7 +17139,7 @@
         <v>1</v>
       </c>
       <c r="P305" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="306" spans="1:16">
@@ -17186,7 +17189,7 @@
         <v>1</v>
       </c>
       <c r="P306" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="307" spans="1:16">
@@ -17236,7 +17239,7 @@
         <v>1</v>
       </c>
       <c r="P307" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="308" spans="1:16">
@@ -17286,7 +17289,7 @@
         <v>1</v>
       </c>
       <c r="P308" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="309" spans="1:16">
@@ -17336,7 +17339,7 @@
         <v>1</v>
       </c>
       <c r="P309" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="310" spans="1:16">
@@ -17786,7 +17789,7 @@
         <v>1</v>
       </c>
       <c r="P318" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="319" spans="1:16">
@@ -17836,7 +17839,7 @@
         <v>1</v>
       </c>
       <c r="P319" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="320" spans="1:16">
@@ -17886,7 +17889,7 @@
         <v>1</v>
       </c>
       <c r="P320" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="321" spans="1:16">
@@ -17936,7 +17939,7 @@
         <v>1</v>
       </c>
       <c r="P321" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="322" spans="1:16">
@@ -17986,7 +17989,7 @@
         <v>1</v>
       </c>
       <c r="P322" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="323" spans="1:16">
@@ -18036,7 +18039,7 @@
         <v>1</v>
       </c>
       <c r="P323" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="324" spans="1:16">
@@ -18086,7 +18089,7 @@
         <v>1</v>
       </c>
       <c r="P324" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="325" spans="1:16">
@@ -18136,7 +18139,7 @@
         <v>1</v>
       </c>
       <c r="P325" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="326" spans="1:16">
@@ -18186,7 +18189,7 @@
         <v>1</v>
       </c>
       <c r="P326" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="327" spans="1:16">
@@ -18236,7 +18239,7 @@
         <v>1</v>
       </c>
       <c r="P327" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="328" spans="1:16">
@@ -18286,7 +18289,7 @@
         <v>1</v>
       </c>
       <c r="P328" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="329" spans="1:16">
@@ -18336,7 +18339,7 @@
         <v>1</v>
       </c>
       <c r="P329" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="330" spans="1:16">
@@ -18386,7 +18389,7 @@
         <v>1</v>
       </c>
       <c r="P330" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="331" spans="1:16">
@@ -18436,7 +18439,7 @@
         <v>1</v>
       </c>
       <c r="P331" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="332" spans="1:16">
@@ -18486,7 +18489,7 @@
         <v>1</v>
       </c>
       <c r="P332" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="333" spans="1:16">
@@ -18536,7 +18539,7 @@
         <v>1</v>
       </c>
       <c r="P333" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="334" spans="1:16">
@@ -19036,7 +19039,7 @@
         <v>1</v>
       </c>
       <c r="P343" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="344" spans="1:16">
@@ -19086,7 +19089,7 @@
         <v>1</v>
       </c>
       <c r="P344" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="345" spans="1:16">
@@ -19136,7 +19139,7 @@
         <v>1</v>
       </c>
       <c r="P345" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="346" spans="1:16">
@@ -19186,7 +19189,7 @@
         <v>1</v>
       </c>
       <c r="P346" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="347" spans="1:16">
@@ -19236,7 +19239,7 @@
         <v>1</v>
       </c>
       <c r="P347" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="348" spans="1:16">
@@ -19286,7 +19289,7 @@
         <v>1</v>
       </c>
       <c r="P348" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="349" spans="1:16">
@@ -19336,7 +19339,7 @@
         <v>1</v>
       </c>
       <c r="P349" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="350" spans="1:16">
@@ -19386,7 +19389,7 @@
         <v>1</v>
       </c>
       <c r="P350" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="351" spans="1:16">
@@ -19436,7 +19439,7 @@
         <v>1</v>
       </c>
       <c r="P351" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="352" spans="1:16">
@@ -19486,7 +19489,7 @@
         <v>1</v>
       </c>
       <c r="P352" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="353" spans="1:16">
@@ -19536,7 +19539,7 @@
         <v>1</v>
       </c>
       <c r="P353" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="354" spans="1:16">
@@ -19586,7 +19589,7 @@
         <v>1</v>
       </c>
       <c r="P354" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="355" spans="1:16">
@@ -19636,7 +19639,7 @@
         <v>1</v>
       </c>
       <c r="P355" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="356" spans="1:16">
@@ -19686,7 +19689,7 @@
         <v>1</v>
       </c>
       <c r="P356" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="357" spans="1:16">
@@ -19736,7 +19739,7 @@
         <v>1</v>
       </c>
       <c r="P357" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="358" spans="1:16">
@@ -19786,7 +19789,7 @@
         <v>1</v>
       </c>
       <c r="P358" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="359" spans="1:16">
@@ -19836,7 +19839,7 @@
         <v>1</v>
       </c>
       <c r="P359" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="360" spans="1:16">
@@ -19886,7 +19889,7 @@
         <v>1</v>
       </c>
       <c r="P360" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="361" spans="1:16">
@@ -19936,7 +19939,7 @@
         <v>1</v>
       </c>
       <c r="P361" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="362" spans="1:16">
@@ -19986,7 +19989,7 @@
         <v>1</v>
       </c>
       <c r="P362" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="363" spans="1:16">
@@ -20036,7 +20039,7 @@
         <v>1</v>
       </c>
       <c r="P363" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="364" spans="1:16">
@@ -20086,7 +20089,7 @@
         <v>1</v>
       </c>
       <c r="P364" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="365" spans="1:16">
@@ -20136,7 +20139,7 @@
         <v>1</v>
       </c>
       <c r="P365" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="366" spans="1:16">
@@ -20186,7 +20189,7 @@
         <v>1</v>
       </c>
       <c r="P366" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="367" spans="1:16">
@@ -20736,7 +20739,7 @@
         <v>1</v>
       </c>
       <c r="P377" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="378" spans="1:16">
@@ -20786,7 +20789,7 @@
         <v>1</v>
       </c>
       <c r="P378" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="379" spans="1:16">
@@ -20836,7 +20839,7 @@
         <v>1</v>
       </c>
       <c r="P379" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="380" spans="1:16">
@@ -20886,7 +20889,7 @@
         <v>1</v>
       </c>
       <c r="P380" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="381" spans="1:16">
@@ -20936,7 +20939,7 @@
         <v>1</v>
       </c>
       <c r="P381" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="382" spans="1:16">
@@ -20986,7 +20989,7 @@
         <v>1</v>
       </c>
       <c r="P382" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="383" spans="1:16">
@@ -21036,7 +21039,7 @@
         <v>1</v>
       </c>
       <c r="P383" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="384" spans="1:16">
@@ -21086,7 +21089,7 @@
         <v>1</v>
       </c>
       <c r="P384" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="385" spans="1:16">
@@ -21136,7 +21139,7 @@
         <v>1</v>
       </c>
       <c r="P385" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="386" spans="1:16">
@@ -21186,7 +21189,7 @@
         <v>1</v>
       </c>
       <c r="P386" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="387" spans="1:16">
@@ -22136,7 +22139,7 @@
         <v>1</v>
       </c>
       <c r="P405" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="406" spans="1:16">
@@ -22186,7 +22189,7 @@
         <v>1</v>
       </c>
       <c r="P406" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="407" spans="1:16">
@@ -22236,7 +22239,7 @@
         <v>1</v>
       </c>
       <c r="P407" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="408" spans="1:16">
@@ -22286,7 +22289,7 @@
         <v>1</v>
       </c>
       <c r="P408" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="409" spans="1:16">
@@ -22336,7 +22339,7 @@
         <v>1</v>
       </c>
       <c r="P409" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="410" spans="1:16">
@@ -22386,7 +22389,7 @@
         <v>1</v>
       </c>
       <c r="P410" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="411" spans="1:16">
@@ -22436,7 +22439,7 @@
         <v>1</v>
       </c>
       <c r="P411" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="412" spans="1:16">
@@ -22486,7 +22489,7 @@
         <v>1</v>
       </c>
       <c r="P412" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="413" spans="1:16">
@@ -22536,7 +22539,7 @@
         <v>1</v>
       </c>
       <c r="P413" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="414" spans="1:16">
@@ -22586,7 +22589,7 @@
         <v>1</v>
       </c>
       <c r="P414" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="415" spans="1:16">
@@ -22636,7 +22639,7 @@
         <v>1</v>
       </c>
       <c r="P415" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="416" spans="1:16">
@@ -22686,7 +22689,7 @@
         <v>1</v>
       </c>
       <c r="P416" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="417" spans="1:16">
@@ -22736,7 +22739,7 @@
         <v>1</v>
       </c>
       <c r="P417" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="418" spans="1:16">
@@ -22786,7 +22789,7 @@
         <v>1</v>
       </c>
       <c r="P418" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="419" spans="1:16">
@@ -22836,7 +22839,7 @@
         <v>1</v>
       </c>
       <c r="P419" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="420" spans="1:16">
@@ -22886,7 +22889,7 @@
         <v>1</v>
       </c>
       <c r="P420" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="421" spans="1:16">
@@ -22936,7 +22939,7 @@
         <v>1</v>
       </c>
       <c r="P421" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="422" spans="1:16">
@@ -22986,7 +22989,7 @@
         <v>1</v>
       </c>
       <c r="P422" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="423" spans="1:16">
@@ -23036,7 +23039,7 @@
         <v>1</v>
       </c>
       <c r="P423" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="424" spans="1:16">
@@ -23586,7 +23589,7 @@
         <v>1</v>
       </c>
       <c r="P434" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="435" spans="1:16">
@@ -23636,7 +23639,7 @@
         <v>1</v>
       </c>
       <c r="P435" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="436" spans="1:16">
@@ -23686,7 +23689,7 @@
         <v>1</v>
       </c>
       <c r="P436" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="437" spans="1:16">
@@ -23736,7 +23739,7 @@
         <v>1</v>
       </c>
       <c r="P437" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="438" spans="1:16">
@@ -23786,7 +23789,7 @@
         <v>1</v>
       </c>
       <c r="P438" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="439" spans="1:16">
@@ -23836,7 +23839,7 @@
         <v>1</v>
       </c>
       <c r="P439" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="440" spans="1:16">
@@ -23886,7 +23889,7 @@
         <v>1</v>
       </c>
       <c r="P440" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="441" spans="1:16">
@@ -23936,7 +23939,7 @@
         <v>1</v>
       </c>
       <c r="P441" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="442" spans="1:16">
@@ -23986,7 +23989,7 @@
         <v>1</v>
       </c>
       <c r="P442" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="443" spans="1:16">
@@ -24036,7 +24039,7 @@
         <v>1</v>
       </c>
       <c r="P443" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="444" spans="1:16">
@@ -24086,7 +24089,7 @@
         <v>1</v>
       </c>
       <c r="P444" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="445" spans="1:16">
@@ -24136,7 +24139,7 @@
         <v>1</v>
       </c>
       <c r="P445" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="446" spans="1:16">
@@ -24186,7 +24189,7 @@
         <v>1</v>
       </c>
       <c r="P446" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="447" spans="1:16">
@@ -24236,7 +24239,7 @@
         <v>1</v>
       </c>
       <c r="P447" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="448" spans="1:16">
@@ -24286,7 +24289,7 @@
         <v>1</v>
       </c>
       <c r="P448" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="449" spans="1:16">
@@ -24336,7 +24339,7 @@
         <v>1</v>
       </c>
       <c r="P449" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="450" spans="1:16">
@@ -24386,7 +24389,7 @@
         <v>1</v>
       </c>
       <c r="P450" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="451" spans="1:16">
@@ -24436,7 +24439,7 @@
         <v>1</v>
       </c>
       <c r="P451" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="452" spans="1:16">
@@ -24486,7 +24489,7 @@
         <v>1</v>
       </c>
       <c r="P452" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="453" spans="1:16">
@@ -24536,7 +24539,7 @@
         <v>1</v>
       </c>
       <c r="P453" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="454" spans="1:16">
@@ -24586,7 +24589,7 @@
         <v>1</v>
       </c>
       <c r="P454" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="455" spans="1:16">
@@ -24636,7 +24639,7 @@
         <v>1</v>
       </c>
       <c r="P455" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="456" spans="1:16">
@@ -24686,7 +24689,7 @@
         <v>1</v>
       </c>
       <c r="P456" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="457" spans="1:16">
@@ -24736,7 +24739,7 @@
         <v>1</v>
       </c>
       <c r="P457" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="458" spans="1:16">
@@ -24786,7 +24789,7 @@
         <v>1</v>
       </c>
       <c r="P458" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="459" spans="1:16">
@@ -24836,7 +24839,7 @@
         <v>1</v>
       </c>
       <c r="P459" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="460" spans="1:16">
@@ -24886,7 +24889,7 @@
         <v>1</v>
       </c>
       <c r="P460" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="461" spans="1:16">
@@ -24936,7 +24939,7 @@
         <v>1</v>
       </c>
       <c r="P461" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="462" spans="1:16">
@@ -24986,7 +24989,7 @@
         <v>1</v>
       </c>
       <c r="P462" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="463" spans="1:16">
@@ -25036,7 +25039,7 @@
         <v>1</v>
       </c>
       <c r="P463" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="464" spans="1:16">
@@ -25086,7 +25089,7 @@
         <v>1</v>
       </c>
       <c r="P464" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="465" spans="1:16">
@@ -25136,7 +25139,7 @@
         <v>1</v>
       </c>
       <c r="P465" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="466" spans="1:16">
@@ -25186,7 +25189,7 @@
         <v>1</v>
       </c>
       <c r="P466" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="467" spans="1:16">
@@ -25236,7 +25239,7 @@
         <v>1</v>
       </c>
       <c r="P467" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="468" spans="1:16">
@@ -25286,7 +25289,7 @@
         <v>1</v>
       </c>
       <c r="P468" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="469" spans="1:16">
@@ -25336,7 +25339,7 @@
         <v>1</v>
       </c>
       <c r="P469" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="470" spans="1:16">
@@ -25386,7 +25389,7 @@
         <v>1</v>
       </c>
       <c r="P470" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="471" spans="1:16">
@@ -25436,7 +25439,7 @@
         <v>1</v>
       </c>
       <c r="P471" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="472" spans="1:16">
@@ -25486,7 +25489,7 @@
         <v>1</v>
       </c>
       <c r="P472" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="473" spans="1:16">
@@ -25536,7 +25539,7 @@
         <v>1</v>
       </c>
       <c r="P473" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="474" spans="1:16">
@@ -25586,7 +25589,7 @@
         <v>1</v>
       </c>
       <c r="P474" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="475" spans="1:16">
@@ -25636,7 +25639,7 @@
         <v>1</v>
       </c>
       <c r="P475" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="476" spans="1:16">
@@ -25686,7 +25689,7 @@
         <v>1</v>
       </c>
       <c r="P476" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="477" spans="1:16">
@@ -25736,7 +25739,7 @@
         <v>1</v>
       </c>
       <c r="P477" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="478" spans="1:16">
@@ -25786,7 +25789,7 @@
         <v>1</v>
       </c>
       <c r="P478" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="479" spans="1:16">
@@ -25836,7 +25839,7 @@
         <v>1</v>
       </c>
       <c r="P479" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="480" spans="1:16">
@@ -25886,7 +25889,7 @@
         <v>1</v>
       </c>
       <c r="P480" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="481" spans="1:16">
@@ -25936,7 +25939,7 @@
         <v>1</v>
       </c>
       <c r="P481" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="482" spans="1:16">
@@ -25986,7 +25989,7 @@
         <v>1</v>
       </c>
       <c r="P482" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="483" spans="1:16">
@@ -26036,7 +26039,7 @@
         <v>1</v>
       </c>
       <c r="P483" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="484" spans="1:16">
@@ -26086,7 +26089,7 @@
         <v>1</v>
       </c>
       <c r="P484" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="485" spans="1:16">
@@ -26136,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="P485" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="486" spans="1:16">
@@ -26186,7 +26189,7 @@
         <v>1</v>
       </c>
       <c r="P486" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="487" spans="1:16">
@@ -26236,7 +26239,7 @@
         <v>1</v>
       </c>
       <c r="P487" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="488" spans="1:16">
@@ -26286,7 +26289,7 @@
         <v>1</v>
       </c>
       <c r="P488" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="489" spans="1:16">
@@ -26336,7 +26339,7 @@
         <v>1</v>
       </c>
       <c r="P489" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="490" spans="1:16">
@@ -26386,7 +26389,7 @@
         <v>1</v>
       </c>
       <c r="P490" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="491" spans="1:16">
@@ -26436,7 +26439,7 @@
         <v>1</v>
       </c>
       <c r="P491" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="492" spans="1:16">
@@ -26486,7 +26489,7 @@
         <v>1</v>
       </c>
       <c r="P492" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="493" spans="1:16">
@@ -26536,7 +26539,7 @@
         <v>1</v>
       </c>
       <c r="P493" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="494" spans="1:16">
@@ -26586,7 +26589,7 @@
         <v>1</v>
       </c>
       <c r="P494" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="495" spans="1:16">
@@ -26636,7 +26639,7 @@
         <v>1</v>
       </c>
       <c r="P495" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="496" spans="1:16">
@@ -26686,7 +26689,7 @@
         <v>1</v>
       </c>
       <c r="P496" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="497" spans="1:16">
@@ -26736,7 +26739,7 @@
         <v>1</v>
       </c>
       <c r="P497" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="498" spans="1:16">
@@ -26786,7 +26789,7 @@
         <v>1</v>
       </c>
       <c r="P498" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="499" spans="1:16">
@@ -26836,7 +26839,7 @@
         <v>1</v>
       </c>
       <c r="P499" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="500" spans="1:16">
@@ -26886,7 +26889,7 @@
         <v>1</v>
       </c>
       <c r="P500" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="501" spans="1:16">
@@ -26936,7 +26939,7 @@
         <v>1</v>
       </c>
       <c r="P501" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="502" spans="1:16">
@@ -26986,7 +26989,7 @@
         <v>1</v>
       </c>
       <c r="P502" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="503" spans="1:16">
@@ -27036,7 +27039,7 @@
         <v>1</v>
       </c>
       <c r="P503" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="504" spans="1:16">
@@ -27086,7 +27089,7 @@
         <v>1</v>
       </c>
       <c r="P504" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="505" spans="1:16">
@@ -27136,7 +27139,7 @@
         <v>1</v>
       </c>
       <c r="P505" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="506" spans="1:16">
@@ -27186,7 +27189,7 @@
         <v>1</v>
       </c>
       <c r="P506" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="507" spans="1:16">
@@ -27236,7 +27239,7 @@
         <v>1</v>
       </c>
       <c r="P507" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="508" spans="1:16">
@@ -27286,7 +27289,7 @@
         <v>1</v>
       </c>
       <c r="P508" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="509" spans="1:16">
@@ -27336,7 +27339,7 @@
         <v>1</v>
       </c>
       <c r="P509" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="510" spans="1:16">
@@ -27386,7 +27389,7 @@
         <v>1</v>
       </c>
       <c r="P510" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="511" spans="1:16">
@@ -27436,7 +27439,7 @@
         <v>1</v>
       </c>
       <c r="P511" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="512" spans="1:16">
@@ -28686,7 +28689,7 @@
         <v>1</v>
       </c>
       <c r="P536" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="537" spans="1:16">
@@ -28736,7 +28739,7 @@
         <v>1</v>
       </c>
       <c r="P537" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="538" spans="1:16">
@@ -28786,7 +28789,7 @@
         <v>1</v>
       </c>
       <c r="P538" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="539" spans="1:16">
@@ -28836,7 +28839,7 @@
         <v>1</v>
       </c>
       <c r="P539" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="540" spans="1:16">
@@ -28886,7 +28889,7 @@
         <v>1</v>
       </c>
       <c r="P540" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="541" spans="1:16">
@@ -28936,7 +28939,7 @@
         <v>1</v>
       </c>
       <c r="P541" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="542" spans="1:16">
@@ -28986,7 +28989,7 @@
         <v>1</v>
       </c>
       <c r="P542" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="543" spans="1:16">
@@ -29336,7 +29339,7 @@
         <v>1</v>
       </c>
       <c r="P549" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="550" spans="1:16">
@@ -29386,7 +29389,7 @@
         <v>1</v>
       </c>
       <c r="P550" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="551" spans="1:16">
@@ -29436,7 +29439,7 @@
         <v>1</v>
       </c>
       <c r="P551" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="552" spans="1:16">
@@ -29486,7 +29489,7 @@
         <v>1</v>
       </c>
       <c r="P552" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="553" spans="1:16">
@@ -29536,7 +29539,7 @@
         <v>1</v>
       </c>
       <c r="P553" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="554" spans="1:16">
@@ -29586,7 +29589,7 @@
         <v>1</v>
       </c>
       <c r="P554" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="555" spans="1:16">
@@ -29636,7 +29639,7 @@
         <v>1</v>
       </c>
       <c r="P555" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="556" spans="1:16">
@@ -29686,7 +29689,7 @@
         <v>1</v>
       </c>
       <c r="P556" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="557" spans="1:16">
@@ -29736,7 +29739,7 @@
         <v>1</v>
       </c>
       <c r="P557" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="558" spans="1:16">
@@ -29786,7 +29789,7 @@
         <v>1</v>
       </c>
       <c r="P558" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="559" spans="1:16">
@@ -29836,7 +29839,7 @@
         <v>1</v>
       </c>
       <c r="P559" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="560" spans="1:16">
@@ -29886,7 +29889,7 @@
         <v>1</v>
       </c>
       <c r="P560" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="561" spans="1:16">
@@ -29936,7 +29939,7 @@
         <v>1</v>
       </c>
       <c r="P561" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="562" spans="1:16">
@@ -30336,7 +30339,7 @@
         <v>1</v>
       </c>
       <c r="P569" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="570" spans="1:16">
@@ -30386,7 +30389,7 @@
         <v>1</v>
       </c>
       <c r="P570" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="571" spans="1:16">
@@ -30436,7 +30439,7 @@
         <v>1</v>
       </c>
       <c r="P571" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="572" spans="1:16">
@@ -30486,7 +30489,7 @@
         <v>1</v>
       </c>
       <c r="P572" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="573" spans="1:16">
@@ -30536,7 +30539,7 @@
         <v>1</v>
       </c>
       <c r="P573" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="574" spans="1:16">
@@ -30586,7 +30589,7 @@
         <v>1</v>
       </c>
       <c r="P574" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="575" spans="1:16">
@@ -30636,7 +30639,7 @@
         <v>1</v>
       </c>
       <c r="P575" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="576" spans="1:16">
@@ -30686,7 +30689,7 @@
         <v>1</v>
       </c>
       <c r="P576" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="577" spans="1:16">
@@ -30736,7 +30739,7 @@
         <v>1</v>
       </c>
       <c r="P577" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="578" spans="1:16">
@@ -30786,7 +30789,7 @@
         <v>1</v>
       </c>
       <c r="P578" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="579" spans="1:16">
@@ -30836,7 +30839,7 @@
         <v>1</v>
       </c>
       <c r="P579" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="580" spans="1:16">
@@ -30886,7 +30889,7 @@
         <v>1</v>
       </c>
       <c r="P580" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="581" spans="1:16">
@@ -30936,7 +30939,7 @@
         <v>1</v>
       </c>
       <c r="P581" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="582" spans="1:16">
@@ -30986,7 +30989,7 @@
         <v>1</v>
       </c>
       <c r="P582" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="583" spans="1:16">
@@ -31036,7 +31039,7 @@
         <v>1</v>
       </c>
       <c r="P583" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="584" spans="1:16">
@@ -31086,7 +31089,7 @@
         <v>1</v>
       </c>
       <c r="P584" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="585" spans="1:16">
@@ -31136,7 +31139,7 @@
         <v>1</v>
       </c>
       <c r="P585" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="586" spans="1:16">
@@ -31536,7 +31539,7 @@
         <v>1</v>
       </c>
       <c r="P593" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="594" spans="1:16">
@@ -31586,7 +31589,7 @@
         <v>1</v>
       </c>
       <c r="P594" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="595" spans="1:16">
@@ -31636,7 +31639,7 @@
         <v>1</v>
       </c>
       <c r="P595" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="596" spans="1:16">
@@ -31686,7 +31689,7 @@
         <v>1</v>
       </c>
       <c r="P596" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="597" spans="1:16">
@@ -31736,7 +31739,7 @@
         <v>1</v>
       </c>
       <c r="P597" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="598" spans="1:16">
@@ -31786,7 +31789,7 @@
         <v>1</v>
       </c>
       <c r="P598" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="599" spans="1:16">
@@ -31836,7 +31839,7 @@
         <v>1</v>
       </c>
       <c r="P599" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="600" spans="1:16">
@@ -32686,7 +32689,7 @@
         <v>1</v>
       </c>
       <c r="P616" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="617" spans="1:16">
@@ -32736,7 +32739,7 @@
         <v>1</v>
       </c>
       <c r="P617" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="618" spans="1:16">
@@ -32786,7 +32789,7 @@
         <v>1</v>
       </c>
       <c r="P618" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="619" spans="1:16">
@@ -32836,7 +32839,7 @@
         <v>1</v>
       </c>
       <c r="P619" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="620" spans="1:16">
@@ -32886,7 +32889,7 @@
         <v>1</v>
       </c>
       <c r="P620" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="621" spans="1:16">
@@ -32936,7 +32939,7 @@
         <v>1</v>
       </c>
       <c r="P621" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="622" spans="1:16">
@@ -32986,7 +32989,7 @@
         <v>1</v>
       </c>
       <c r="P622" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="623" spans="1:16">
@@ -33036,7 +33039,7 @@
         <v>1</v>
       </c>
       <c r="P623" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="624" spans="1:16">
@@ -33086,7 +33089,7 @@
         <v>1</v>
       </c>
       <c r="P624" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="625" spans="1:16">
@@ -33136,7 +33139,7 @@
         <v>1</v>
       </c>
       <c r="P625" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="626" spans="1:16">
@@ -33186,7 +33189,7 @@
         <v>1</v>
       </c>
       <c r="P626" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="627" spans="1:16">
@@ -33236,7 +33239,7 @@
         <v>1</v>
       </c>
       <c r="P627" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="628" spans="1:16">
@@ -33286,7 +33289,7 @@
         <v>1</v>
       </c>
       <c r="P628" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="629" spans="1:16">
@@ -33336,7 +33339,7 @@
         <v>1</v>
       </c>
       <c r="P629" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="630" spans="1:16">
@@ -33386,7 +33389,7 @@
         <v>1</v>
       </c>
       <c r="P630" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="631" spans="1:16">
@@ -33436,7 +33439,7 @@
         <v>1</v>
       </c>
       <c r="P631" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="632" spans="1:16">
@@ -33486,7 +33489,7 @@
         <v>1</v>
       </c>
       <c r="P632" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="633" spans="1:16">
@@ -33536,7 +33539,7 @@
         <v>1</v>
       </c>
       <c r="P633" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="634" spans="1:16">
@@ -33586,7 +33589,7 @@
         <v>1</v>
       </c>
       <c r="P634" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="635" spans="1:16">
@@ -33636,7 +33639,7 @@
         <v>1</v>
       </c>
       <c r="P635" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="636" spans="1:16">
@@ -33686,7 +33689,7 @@
         <v>1</v>
       </c>
       <c r="P636" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="637" spans="1:16">
@@ -33736,7 +33739,7 @@
         <v>1</v>
       </c>
       <c r="P637" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="638" spans="1:16">
@@ -33786,7 +33789,7 @@
         <v>1</v>
       </c>
       <c r="P638" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="639" spans="1:16">
@@ -33836,7 +33839,7 @@
         <v>1</v>
       </c>
       <c r="P639" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="640" spans="1:16">
@@ -33886,7 +33889,7 @@
         <v>1</v>
       </c>
       <c r="P640" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="641" spans="1:16">
@@ -33936,7 +33939,7 @@
         <v>1</v>
       </c>
       <c r="P641" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="642" spans="1:16">
@@ -33986,7 +33989,7 @@
         <v>1</v>
       </c>
       <c r="P642" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="643" spans="1:16">
@@ -34036,7 +34039,7 @@
         <v>1</v>
       </c>
       <c r="P643" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="644" spans="1:16">
@@ -34086,7 +34089,7 @@
         <v>1</v>
       </c>
       <c r="P644" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="645" spans="1:16">
@@ -34136,7 +34139,7 @@
         <v>1</v>
       </c>
       <c r="P645" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="646" spans="1:16">
@@ -34636,7 +34639,7 @@
         <v>1</v>
       </c>
       <c r="P655" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="656" spans="1:16">
@@ -34686,7 +34689,7 @@
         <v>1</v>
       </c>
       <c r="P656" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="657" spans="1:16">
@@ -34736,7 +34739,7 @@
         <v>1</v>
       </c>
       <c r="P657" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="658" spans="1:16">
@@ -34786,7 +34789,7 @@
         <v>1</v>
       </c>
       <c r="P658" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="659" spans="1:16">
@@ -34836,7 +34839,7 @@
         <v>1</v>
       </c>
       <c r="P659" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="660" spans="1:16">
@@ -34886,7 +34889,7 @@
         <v>1</v>
       </c>
       <c r="P660" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="661" spans="1:16">
@@ -34936,7 +34939,7 @@
         <v>1</v>
       </c>
       <c r="P661" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="662" spans="1:16">
@@ -34986,7 +34989,7 @@
         <v>1</v>
       </c>
       <c r="P662" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="663" spans="1:16">
@@ -35036,7 +35039,7 @@
         <v>1</v>
       </c>
       <c r="P663" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="664" spans="1:16">
@@ -35086,7 +35089,7 @@
         <v>1</v>
       </c>
       <c r="P664" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="665" spans="1:16">
@@ -35136,7 +35139,7 @@
         <v>1</v>
       </c>
       <c r="P665" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="666" spans="1:16">
@@ -35186,7 +35189,7 @@
         <v>1</v>
       </c>
       <c r="P666" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="667" spans="1:16">
@@ -35236,7 +35239,7 @@
         <v>1</v>
       </c>
       <c r="P667" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="668" spans="1:16">
@@ -35286,7 +35289,7 @@
         <v>1</v>
       </c>
       <c r="P668" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="669" spans="1:16">
@@ -35336,7 +35339,7 @@
         <v>1</v>
       </c>
       <c r="P669" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="670" spans="1:16">
@@ -38036,7 +38039,7 @@
         <v>1</v>
       </c>
       <c r="P723" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="724" spans="1:16">
@@ -38086,7 +38089,7 @@
         <v>1</v>
       </c>
       <c r="P724" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="725" spans="1:16">
@@ -38136,7 +38139,7 @@
         <v>1</v>
       </c>
       <c r="P725" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="726" spans="1:16">
@@ -38186,7 +38189,7 @@
         <v>1</v>
       </c>
       <c r="P726" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="727" spans="1:16">
@@ -38236,7 +38239,7 @@
         <v>1</v>
       </c>
       <c r="P727" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="728" spans="1:16">
@@ -38286,7 +38289,7 @@
         <v>1</v>
       </c>
       <c r="P728" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="729" spans="1:16">
@@ -38336,7 +38339,7 @@
         <v>1</v>
       </c>
       <c r="P729" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="730" spans="1:16">
@@ -38386,7 +38389,7 @@
         <v>1</v>
       </c>
       <c r="P730" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="731" spans="1:16">
@@ -38436,7 +38439,7 @@
         <v>1</v>
       </c>
       <c r="P731" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="732" spans="1:16">
@@ -38486,7 +38489,7 @@
         <v>1</v>
       </c>
       <c r="P732" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="733" spans="1:16">
@@ -38536,7 +38539,7 @@
         <v>1</v>
       </c>
       <c r="P733" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="734" spans="1:16">
@@ -38586,7 +38589,7 @@
         <v>1</v>
       </c>
       <c r="P734" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="735" spans="1:16">
@@ -38636,7 +38639,7 @@
         <v>1</v>
       </c>
       <c r="P735" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="736" spans="1:16">
@@ -38686,7 +38689,7 @@
         <v>1</v>
       </c>
       <c r="P736" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="737" spans="1:16">
@@ -38736,7 +38739,7 @@
         <v>1</v>
       </c>
       <c r="P737" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="738" spans="1:16">
@@ -38786,7 +38789,7 @@
         <v>1</v>
       </c>
       <c r="P738" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="739" spans="1:16">
@@ -38836,7 +38839,7 @@
         <v>1</v>
       </c>
       <c r="P739" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="740" spans="1:16">
@@ -38886,7 +38889,7 @@
         <v>1</v>
       </c>
       <c r="P740" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="741" spans="1:16">
@@ -38936,7 +38939,7 @@
         <v>1</v>
       </c>
       <c r="P741" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="742" spans="1:16">
@@ -38986,7 +38989,7 @@
         <v>1</v>
       </c>
       <c r="P742" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="743" spans="1:16">
@@ -39036,7 +39039,7 @@
         <v>1</v>
       </c>
       <c r="P743" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="744" spans="1:16">
@@ -39086,7 +39089,7 @@
         <v>1</v>
       </c>
       <c r="P744" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="745" spans="1:16">
@@ -39136,7 +39139,7 @@
         <v>1</v>
       </c>
       <c r="P745" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="746" spans="1:16">
@@ -39186,7 +39189,7 @@
         <v>1</v>
       </c>
       <c r="P746" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="747" spans="1:16">
@@ -39236,7 +39239,7 @@
         <v>1</v>
       </c>
       <c r="P747" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="748" spans="1:16">
@@ -39286,7 +39289,7 @@
         <v>1</v>
       </c>
       <c r="P748" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="749" spans="1:16">
@@ -39336,7 +39339,7 @@
         <v>1</v>
       </c>
       <c r="P749" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="750" spans="1:16">
@@ -39386,7 +39389,7 @@
         <v>1</v>
       </c>
       <c r="P750" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="751" spans="1:16">
@@ -39436,7 +39439,7 @@
         <v>1</v>
       </c>
       <c r="P751" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="752" spans="1:16">
@@ -39486,7 +39489,7 @@
         <v>1</v>
       </c>
       <c r="P752" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="753" spans="1:16">
@@ -39536,7 +39539,7 @@
         <v>1</v>
       </c>
       <c r="P753" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="754" spans="1:16">
@@ -39586,7 +39589,7 @@
         <v>1</v>
       </c>
       <c r="P754" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="755" spans="1:16">
@@ -39636,7 +39639,7 @@
         <v>1</v>
       </c>
       <c r="P755" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="756" spans="1:16">
@@ -39686,7 +39689,7 @@
         <v>1</v>
       </c>
       <c r="P756" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="757" spans="1:16">
@@ -39736,7 +39739,7 @@
         <v>1</v>
       </c>
       <c r="P757" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="758" spans="1:16">
@@ -39786,7 +39789,7 @@
         <v>1</v>
       </c>
       <c r="P758" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="759" spans="1:16">
@@ -39836,7 +39839,7 @@
         <v>1</v>
       </c>
       <c r="P759" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="760" spans="1:16">
@@ -39886,7 +39889,7 @@
         <v>1</v>
       </c>
       <c r="P760" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="761" spans="1:16">
@@ -39936,7 +39939,7 @@
         <v>1</v>
       </c>
       <c r="P761" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="762" spans="1:16">
@@ -39986,7 +39989,7 @@
         <v>1</v>
       </c>
       <c r="P762" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="763" spans="1:16">
@@ -40036,7 +40039,7 @@
         <v>1</v>
       </c>
       <c r="P763" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="764" spans="1:16">
@@ -40086,7 +40089,7 @@
         <v>1</v>
       </c>
       <c r="P764" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="765" spans="1:16">
@@ -40136,7 +40139,7 @@
         <v>1</v>
       </c>
       <c r="P765" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="766" spans="1:16">
@@ -40186,7 +40189,7 @@
         <v>1</v>
       </c>
       <c r="P766" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="767" spans="1:16">
@@ -40236,7 +40239,7 @@
         <v>1</v>
       </c>
       <c r="P767" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="768" spans="1:16">
@@ -40286,7 +40289,7 @@
         <v>1</v>
       </c>
       <c r="P768" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="769" spans="1:16">
@@ -40836,7 +40839,7 @@
         <v>1</v>
       </c>
       <c r="P779" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="780" spans="1:16">
@@ -40886,7 +40889,7 @@
         <v>1</v>
       </c>
       <c r="P780" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="781" spans="1:16">
@@ -40936,7 +40939,7 @@
         <v>1</v>
       </c>
       <c r="P781" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="782" spans="1:16">
@@ -40986,7 +40989,7 @@
         <v>1</v>
       </c>
       <c r="P782" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="783" spans="1:16">
@@ -41036,7 +41039,7 @@
         <v>1</v>
       </c>
       <c r="P783" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="784" spans="1:16">
@@ -41086,7 +41089,7 @@
         <v>1</v>
       </c>
       <c r="P784" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="785" spans="1:16">
@@ -41136,7 +41139,7 @@
         <v>1</v>
       </c>
       <c r="P785" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="786" spans="1:16">
@@ -41186,7 +41189,7 @@
         <v>1</v>
       </c>
       <c r="P786" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="787" spans="1:16">
@@ -41236,7 +41239,7 @@
         <v>1</v>
       </c>
       <c r="P787" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="788" spans="1:16">
@@ -43686,7 +43689,7 @@
         <v>1</v>
       </c>
       <c r="P836" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="837" spans="1:16">
@@ -43736,7 +43739,7 @@
         <v>1</v>
       </c>
       <c r="P837" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="838" spans="1:16">
@@ -43786,7 +43789,7 @@
         <v>1</v>
       </c>
       <c r="P838" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="839" spans="1:16">
@@ -43836,7 +43839,7 @@
         <v>1</v>
       </c>
       <c r="P839" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="840" spans="1:16">
@@ -43886,7 +43889,7 @@
         <v>1</v>
       </c>
       <c r="P840" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="841" spans="1:16">
@@ -43936,7 +43939,7 @@
         <v>1</v>
       </c>
       <c r="P841" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="842" spans="1:16">
@@ -43986,7 +43989,7 @@
         <v>1</v>
       </c>
       <c r="P842" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="843" spans="1:16">
@@ -45486,7 +45489,7 @@
         <v>1</v>
       </c>
       <c r="P872" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="873" spans="1:16">
@@ -45536,7 +45539,7 @@
         <v>1</v>
       </c>
       <c r="P873" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="874" spans="1:16">
@@ -45836,7 +45839,7 @@
         <v>1</v>
       </c>
       <c r="P879" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="880" spans="1:16">
@@ -45886,7 +45889,7 @@
         <v>1</v>
       </c>
       <c r="P880" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="881" spans="1:16">
@@ -47486,7 +47489,7 @@
         <v>1</v>
       </c>
       <c r="P912" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="913" spans="1:16">
@@ -47536,7 +47539,7 @@
         <v>1</v>
       </c>
       <c r="P913" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="914" spans="1:16">
@@ -47586,7 +47589,7 @@
         <v>1</v>
       </c>
       <c r="P914" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="915" spans="1:16">
@@ -47636,7 +47639,7 @@
         <v>1</v>
       </c>
       <c r="P915" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="916" spans="1:16">
@@ -47686,7 +47689,7 @@
         <v>1</v>
       </c>
       <c r="P916" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="917" spans="1:16">
@@ -50736,7 +50739,7 @@
         <v>1</v>
       </c>
       <c r="P977" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="978" spans="1:16">
@@ -50786,7 +50789,7 @@
         <v>1</v>
       </c>
       <c r="P978" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="979" spans="1:16">
@@ -50836,7 +50839,7 @@
         <v>1</v>
       </c>
       <c r="P979" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="980" spans="1:16">
@@ -50886,7 +50889,7 @@
         <v>1</v>
       </c>
       <c r="P980" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="981" spans="1:16">
@@ -50936,7 +50939,7 @@
         <v>1</v>
       </c>
       <c r="P981" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="982" spans="1:16">
@@ -50986,7 +50989,7 @@
         <v>1</v>
       </c>
       <c r="P982" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="983" spans="1:16">
@@ -51036,7 +51039,7 @@
         <v>1</v>
       </c>
       <c r="P983" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="984" spans="1:16">
@@ -51086,7 +51089,7 @@
         <v>1</v>
       </c>
       <c r="P984" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="985" spans="1:16">
@@ -51136,7 +51139,7 @@
         <v>1</v>
       </c>
       <c r="P985" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="986" spans="1:16">
@@ -51186,7 +51189,7 @@
         <v>1</v>
       </c>
       <c r="P986" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="987" spans="1:16">
@@ -51236,7 +51239,7 @@
         <v>1</v>
       </c>
       <c r="P987" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="988" spans="1:16">
@@ -51286,7 +51289,7 @@
         <v>1</v>
       </c>
       <c r="P988" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="989" spans="1:16">
@@ -51336,7 +51339,7 @@
         <v>1</v>
       </c>
       <c r="P989" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="990" spans="1:16">
@@ -51386,7 +51389,7 @@
         <v>1</v>
       </c>
       <c r="P990" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="991" spans="1:16">
@@ -51736,7 +51739,7 @@
         <v>1</v>
       </c>
       <c r="P997" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="998" spans="1:16">
@@ -51786,7 +51789,7 @@
         <v>1</v>
       </c>
       <c r="P998" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="999" spans="1:16">
@@ -51836,7 +51839,7 @@
         <v>1</v>
       </c>
       <c r="P999" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="1000" spans="1:16">
@@ -51886,7 +51889,7 @@
         <v>1</v>
       </c>
       <c r="P1000" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="1001" spans="1:16">
@@ -51936,7 +51939,7 @@
         <v>1</v>
       </c>
       <c r="P1001" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="1002" spans="1:16">
@@ -51986,7 +51989,7 @@
         <v>1</v>
       </c>
       <c r="P1002" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="1003" spans="1:16">
@@ -52786,7 +52789,7 @@
         <v>1</v>
       </c>
       <c r="P1018" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="1019" spans="1:16">
@@ -52836,7 +52839,7 @@
         <v>1</v>
       </c>
       <c r="P1019" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="1020" spans="1:16">
@@ -52886,7 +52889,7 @@
         <v>1</v>
       </c>
       <c r="P1020" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="1021" spans="1:16">
@@ -52936,7 +52939,7 @@
         <v>1</v>
       </c>
       <c r="P1021" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="1022" spans="1:16">
@@ -52986,7 +52989,7 @@
         <v>1</v>
       </c>
       <c r="P1022" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="1023" spans="1:16">
@@ -53586,7 +53589,7 @@
         <v>1</v>
       </c>
       <c r="P1034" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="1035" spans="1:16">
@@ -53636,7 +53639,7 @@
         <v>1</v>
       </c>
       <c r="P1035" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="1036" spans="1:16">
@@ -53686,7 +53689,7 @@
         <v>1</v>
       </c>
       <c r="P1036" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="1037" spans="1:16">
@@ -53736,7 +53739,7 @@
         <v>1</v>
       </c>
       <c r="P1037" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="1038" spans="1:16">
@@ -53786,7 +53789,7 @@
         <v>1</v>
       </c>
       <c r="P1038" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="1039" spans="1:16">
@@ -53836,7 +53839,7 @@
         <v>1</v>
       </c>
       <c r="P1039" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="1040" spans="1:16">
@@ -53886,7 +53889,7 @@
         <v>1</v>
       </c>
       <c r="P1040" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="1041" spans="1:16">
@@ -53936,7 +53939,7 @@
         <v>1</v>
       </c>
       <c r="P1041" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="1042" spans="1:16">
@@ -53986,7 +53989,7 @@
         <v>1</v>
       </c>
       <c r="P1042" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="1043" spans="1:16">
@@ -54036,7 +54039,7 @@
         <v>1</v>
       </c>
       <c r="P1043" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="1044" spans="1:16">
@@ -54086,7 +54089,7 @@
         <v>1</v>
       </c>
       <c r="P1044" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="1045" spans="1:16">
@@ -54136,7 +54139,7 @@
         <v>1</v>
       </c>
       <c r="P1045" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="1046" spans="1:16">
@@ -54186,7 +54189,7 @@
         <v>1</v>
       </c>
       <c r="P1046" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="1047" spans="1:16">
@@ -54236,7 +54239,7 @@
         <v>1</v>
       </c>
       <c r="P1047" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="1048" spans="1:16">
@@ -54286,7 +54289,7 @@
         <v>1</v>
       </c>
       <c r="P1048" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="1049" spans="1:16">
@@ -54336,7 +54339,7 @@
         <v>1</v>
       </c>
       <c r="P1049" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="1050" spans="1:16">
@@ -54386,7 +54389,7 @@
         <v>1</v>
       </c>
       <c r="P1050" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="1051" spans="1:16">
@@ -54436,7 +54439,7 @@
         <v>1</v>
       </c>
       <c r="P1051" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="1052" spans="1:16">
@@ -54486,7 +54489,7 @@
         <v>1</v>
       </c>
       <c r="P1052" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="1053" spans="1:16">
@@ -54536,7 +54539,7 @@
         <v>1</v>
       </c>
       <c r="P1053" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="1054" spans="1:16">
@@ -54586,7 +54589,7 @@
         <v>1</v>
       </c>
       <c r="P1054" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="1055" spans="1:16">
@@ -54636,7 +54639,7 @@
         <v>1</v>
       </c>
       <c r="P1055" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="1056" spans="1:16">
@@ -54686,7 +54689,7 @@
         <v>1</v>
       </c>
       <c r="P1056" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="1057" spans="1:16">
@@ -54736,7 +54739,7 @@
         <v>1</v>
       </c>
       <c r="P1057" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="1058" spans="1:16">
@@ -54786,7 +54789,7 @@
         <v>1</v>
       </c>
       <c r="P1058" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="1059" spans="1:16">
@@ -54836,7 +54839,7 @@
         <v>1</v>
       </c>
       <c r="P1059" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="1060" spans="1:16">
@@ -54886,7 +54889,7 @@
         <v>1</v>
       </c>
       <c r="P1060" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="1061" spans="1:16">
@@ -54936,7 +54939,7 @@
         <v>1</v>
       </c>
       <c r="P1061" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="1062" spans="1:16">
@@ -54986,7 +54989,7 @@
         <v>1</v>
       </c>
       <c r="P1062" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="1063" spans="1:16">
@@ -55036,7 +55039,7 @@
         <v>1</v>
       </c>
       <c r="P1063" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="1064" spans="1:16">
@@ -55086,7 +55089,7 @@
         <v>1</v>
       </c>
       <c r="P1064" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="1065" spans="1:16">
@@ -55136,7 +55139,7 @@
         <v>1</v>
       </c>
       <c r="P1065" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="1066" spans="1:16">
@@ -55186,7 +55189,7 @@
         <v>1</v>
       </c>
       <c r="P1066" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="1067" spans="1:16">
@@ -55236,7 +55239,7 @@
         <v>1</v>
       </c>
       <c r="P1067" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="1068" spans="1:16">
@@ -55286,7 +55289,7 @@
         <v>1</v>
       </c>
       <c r="P1068" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="1069" spans="1:16">
@@ -55336,7 +55339,7 @@
         <v>1</v>
       </c>
       <c r="P1069" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="1070" spans="1:16">
@@ -55386,7 +55389,7 @@
         <v>1</v>
       </c>
       <c r="P1070" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="1071" spans="1:16">
@@ -55436,7 +55439,7 @@
         <v>1</v>
       </c>
       <c r="P1071" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="1072" spans="1:16">
@@ -55486,7 +55489,7 @@
         <v>1</v>
       </c>
       <c r="P1072" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="1073" spans="1:16">
@@ -55536,7 +55539,7 @@
         <v>1</v>
       </c>
       <c r="P1073" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="1074" spans="1:16">
@@ -55586,7 +55589,7 @@
         <v>1</v>
       </c>
       <c r="P1074" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="1075" spans="1:16">
@@ -55636,7 +55639,7 @@
         <v>1</v>
       </c>
       <c r="P1075" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="1076" spans="1:16">
@@ -55686,7 +55689,7 @@
         <v>1</v>
       </c>
       <c r="P1076" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="1077" spans="1:16">
@@ -55736,7 +55739,7 @@
         <v>1</v>
       </c>
       <c r="P1077" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="1078" spans="1:16">
@@ -55786,7 +55789,7 @@
         <v>1</v>
       </c>
       <c r="P1078" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="1079" spans="1:16">
@@ -55836,7 +55839,7 @@
         <v>1</v>
       </c>
       <c r="P1079" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="1080" spans="1:16">
@@ -55886,7 +55889,7 @@
         <v>1</v>
       </c>
       <c r="P1080" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="1081" spans="1:16">
@@ -55936,7 +55939,7 @@
         <v>1</v>
       </c>
       <c r="P1081" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="1082" spans="1:16">
@@ -55986,7 +55989,7 @@
         <v>1</v>
       </c>
       <c r="P1082" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="1083" spans="1:16">
@@ -56036,7 +56039,7 @@
         <v>1</v>
       </c>
       <c r="P1083" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="1084" spans="1:16">
@@ -56086,7 +56089,7 @@
         <v>1</v>
       </c>
       <c r="P1084" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="1085" spans="1:16">
@@ -56136,7 +56139,7 @@
         <v>1</v>
       </c>
       <c r="P1085" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="1086" spans="1:16">
@@ -56186,7 +56189,7 @@
         <v>1</v>
       </c>
       <c r="P1086" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="1087" spans="1:16">
@@ -56236,7 +56239,7 @@
         <v>1</v>
       </c>
       <c r="P1087" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="1088" spans="1:16">
@@ -56286,7 +56289,7 @@
         <v>1</v>
       </c>
       <c r="P1088" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="1089" spans="1:16">
@@ -56336,7 +56339,7 @@
         <v>1</v>
       </c>
       <c r="P1089" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="1090" spans="1:16">
@@ -56386,7 +56389,7 @@
         <v>1</v>
       </c>
       <c r="P1090" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="1091" spans="1:16">
@@ -56436,7 +56439,7 @@
         <v>1</v>
       </c>
       <c r="P1091" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="1092" spans="1:16">
@@ -56486,7 +56489,7 @@
         <v>1</v>
       </c>
       <c r="P1092" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="1093" spans="1:16">
@@ -56536,7 +56539,7 @@
         <v>1</v>
       </c>
       <c r="P1093" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="1094" spans="1:16">
@@ -56586,7 +56589,7 @@
         <v>1</v>
       </c>
       <c r="P1094" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="1095" spans="1:16">
@@ -56636,7 +56639,7 @@
         <v>1</v>
       </c>
       <c r="P1095" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="1096" spans="1:16">
@@ -56686,7 +56689,7 @@
         <v>1</v>
       </c>
       <c r="P1096" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="1097" spans="1:16">
@@ -56736,7 +56739,7 @@
         <v>1</v>
       </c>
       <c r="P1097" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="1098" spans="1:16">
@@ -56786,7 +56789,7 @@
         <v>1</v>
       </c>
       <c r="P1098" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="1099" spans="1:16">
@@ -56836,7 +56839,7 @@
         <v>1</v>
       </c>
       <c r="P1099" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="1100" spans="1:16">
@@ -56886,7 +56889,7 @@
         <v>1</v>
       </c>
       <c r="P1100" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="1101" spans="1:16">
@@ -56936,7 +56939,7 @@
         <v>1</v>
       </c>
       <c r="P1101" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="1102" spans="1:16">
@@ -56986,7 +56989,7 @@
         <v>1</v>
       </c>
       <c r="P1102" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="1103" spans="1:16">
@@ -57036,7 +57039,7 @@
         <v>1</v>
       </c>
       <c r="P1103" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="1104" spans="1:16">
@@ -57086,7 +57089,7 @@
         <v>1</v>
       </c>
       <c r="P1104" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="1105" spans="1:16">
@@ -57136,7 +57139,7 @@
         <v>1</v>
       </c>
       <c r="P1105" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="1106" spans="1:16">
@@ -57186,7 +57189,7 @@
         <v>1</v>
       </c>
       <c r="P1106" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="1107" spans="1:16">
@@ -57236,7 +57239,7 @@
         <v>1</v>
       </c>
       <c r="P1107" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="1108" spans="1:16">
@@ -57286,7 +57289,7 @@
         <v>1</v>
       </c>
       <c r="P1108" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="1109" spans="1:16">
@@ -57336,7 +57339,7 @@
         <v>1</v>
       </c>
       <c r="P1109" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="1110" spans="1:16">
@@ -57386,7 +57389,7 @@
         <v>1</v>
       </c>
       <c r="P1110" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="1111" spans="1:16">
@@ -57436,7 +57439,7 @@
         <v>1</v>
       </c>
       <c r="P1111" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="1112" spans="1:16">
@@ -57486,7 +57489,7 @@
         <v>1</v>
       </c>
       <c r="P1112" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="1113" spans="1:16">
@@ -57536,7 +57539,7 @@
         <v>1</v>
       </c>
       <c r="P1113" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="1114" spans="1:16">
@@ -57586,7 +57589,7 @@
         <v>1</v>
       </c>
       <c r="P1114" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="1115" spans="1:16">
@@ -57636,7 +57639,7 @@
         <v>1</v>
       </c>
       <c r="P1115" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="1116" spans="1:16">
@@ -57686,7 +57689,7 @@
         <v>1</v>
       </c>
       <c r="P1116" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="1117" spans="1:16">
@@ -57736,7 +57739,7 @@
         <v>1</v>
       </c>
       <c r="P1117" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="1118" spans="1:16">
@@ -57786,7 +57789,7 @@
         <v>1</v>
       </c>
       <c r="P1118" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="1119" spans="1:16">
@@ -57836,7 +57839,7 @@
         <v>1</v>
       </c>
       <c r="P1119" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="1120" spans="1:16">
@@ -57886,7 +57889,7 @@
         <v>1</v>
       </c>
       <c r="P1120" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="1121" spans="1:16">
@@ -57936,7 +57939,7 @@
         <v>1</v>
       </c>
       <c r="P1121" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="1122" spans="1:16">
@@ -57986,7 +57989,7 @@
         <v>1</v>
       </c>
       <c r="P1122" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="1123" spans="1:16">
@@ -58036,7 +58039,7 @@
         <v>1</v>
       </c>
       <c r="P1123" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="1124" spans="1:16">
@@ -58086,7 +58089,7 @@
         <v>1</v>
       </c>
       <c r="P1124" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="1125" spans="1:16">
@@ -58136,7 +58139,7 @@
         <v>1</v>
       </c>
       <c r="P1125" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="1126" spans="1:16">
@@ -58186,7 +58189,7 @@
         <v>1</v>
       </c>
       <c r="P1126" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="1127" spans="1:16">
@@ -58236,7 +58239,7 @@
         <v>1</v>
       </c>
       <c r="P1127" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="1128" spans="1:16">
@@ -58286,7 +58289,7 @@
         <v>1</v>
       </c>
       <c r="P1128" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="1129" spans="1:16">
@@ -58336,7 +58339,7 @@
         <v>1</v>
       </c>
       <c r="P1129" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="1130" spans="1:16">
@@ -58386,7 +58389,7 @@
         <v>1</v>
       </c>
       <c r="P1130" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="1131" spans="1:16">
@@ -58436,7 +58439,7 @@
         <v>1</v>
       </c>
       <c r="P1131" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="1132" spans="1:16">
@@ -58486,7 +58489,7 @@
         <v>1</v>
       </c>
       <c r="P1132" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="1133" spans="1:16">
@@ -58536,7 +58539,7 @@
         <v>1</v>
       </c>
       <c r="P1133" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="1134" spans="1:16">
@@ -58586,7 +58589,7 @@
         <v>1</v>
       </c>
       <c r="P1134" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="1135" spans="1:16">
@@ -58636,7 +58639,7 @@
         <v>1</v>
       </c>
       <c r="P1135" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="1136" spans="1:16">
@@ -58686,7 +58689,7 @@
         <v>1</v>
       </c>
       <c r="P1136" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="1137" spans="1:16">
@@ -58736,7 +58739,7 @@
         <v>1</v>
       </c>
       <c r="P1137" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="1138" spans="1:16">
@@ -58786,7 +58789,7 @@
         <v>1</v>
       </c>
       <c r="P1138" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="1139" spans="1:16">
@@ -58836,7 +58839,7 @@
         <v>1</v>
       </c>
       <c r="P1139" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="1140" spans="1:16">
@@ -58886,7 +58889,7 @@
         <v>1</v>
       </c>
       <c r="P1140" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="1141" spans="1:16">
@@ -58936,7 +58939,7 @@
         <v>1</v>
       </c>
       <c r="P1141" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="1142" spans="1:16">
@@ -58986,7 +58989,7 @@
         <v>1</v>
       </c>
       <c r="P1142" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="1143" spans="1:16">
@@ -59036,7 +59039,7 @@
         <v>1</v>
       </c>
       <c r="P1143" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="1144" spans="1:16">
@@ -59086,7 +59089,7 @@
         <v>1</v>
       </c>
       <c r="P1144" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="1145" spans="1:16">
@@ -59136,7 +59139,7 @@
         <v>1</v>
       </c>
       <c r="P1145" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="1146" spans="1:16">
@@ -59186,7 +59189,7 @@
         <v>1</v>
       </c>
       <c r="P1146" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="1147" spans="1:16">
@@ -59236,7 +59239,7 @@
         <v>1</v>
       </c>
       <c r="P1147" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="1148" spans="1:16">
@@ -59286,7 +59289,7 @@
         <v>1</v>
       </c>
       <c r="P1148" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="1149" spans="1:16">
@@ -59336,7 +59339,7 @@
         <v>1</v>
       </c>
       <c r="P1149" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="1150" spans="1:16">
@@ -59386,7 +59389,7 @@
         <v>1</v>
       </c>
       <c r="P1150" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="1151" spans="1:16">
@@ -59436,7 +59439,7 @@
         <v>1</v>
       </c>
       <c r="P1151" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="1152" spans="1:16">
@@ -59486,7 +59489,7 @@
         <v>1</v>
       </c>
       <c r="P1152" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="1153" spans="1:16">
@@ -59536,7 +59539,7 @@
         <v>1</v>
       </c>
       <c r="P1153" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="1154" spans="1:16">
@@ -59586,7 +59589,7 @@
         <v>1</v>
       </c>
       <c r="P1154" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="1155" spans="1:16">
@@ -59636,7 +59639,7 @@
         <v>1</v>
       </c>
       <c r="P1155" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="1156" spans="1:16">
@@ -59686,7 +59689,7 @@
         <v>1</v>
       </c>
       <c r="P1156" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="1157" spans="1:16">
@@ -59736,7 +59739,7 @@
         <v>1</v>
       </c>
       <c r="P1157" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="1158" spans="1:16">
@@ -59786,7 +59789,7 @@
         <v>1</v>
       </c>
       <c r="P1158" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="1159" spans="1:16">
@@ -59836,7 +59839,7 @@
         <v>1</v>
       </c>
       <c r="P1159" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="1160" spans="1:16">
@@ -59886,7 +59889,7 @@
         <v>1</v>
       </c>
       <c r="P1160" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="1161" spans="1:16">
@@ -59936,7 +59939,7 @@
         <v>1</v>
       </c>
       <c r="P1161" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="1162" spans="1:16">
@@ -59986,7 +59989,7 @@
         <v>1</v>
       </c>
       <c r="P1162" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="1163" spans="1:16">
@@ -60036,7 +60039,7 @@
         <v>1</v>
       </c>
       <c r="P1163" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="1164" spans="1:16">
@@ -60086,7 +60089,7 @@
         <v>1</v>
       </c>
       <c r="P1164" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="1165" spans="1:16">
@@ -60136,7 +60139,7 @@
         <v>1</v>
       </c>
       <c r="P1165" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="1166" spans="1:16">
@@ -60186,7 +60189,7 @@
         <v>1</v>
       </c>
       <c r="P1166" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="1167" spans="1:16">
@@ -60236,7 +60239,7 @@
         <v>1</v>
       </c>
       <c r="P1167" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="1168" spans="1:16">
@@ -60286,7 +60289,7 @@
         <v>1</v>
       </c>
       <c r="P1168" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="1169" spans="1:16">
@@ -60336,7 +60339,7 @@
         <v>1</v>
       </c>
       <c r="P1169" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="1170" spans="1:16">
@@ -60386,7 +60389,7 @@
         <v>1</v>
       </c>
       <c r="P1170" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="1171" spans="1:16">
@@ -60436,7 +60439,7 @@
         <v>1</v>
       </c>
       <c r="P1171" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="1172" spans="1:16">
@@ -60486,7 +60489,7 @@
         <v>1</v>
       </c>
       <c r="P1172" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="1173" spans="1:16">
@@ -60536,7 +60539,7 @@
         <v>1</v>
       </c>
       <c r="P1173" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="1174" spans="1:16">
@@ -60586,7 +60589,7 @@
         <v>1</v>
       </c>
       <c r="P1174" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="1175" spans="1:16">
@@ -60636,7 +60639,7 @@
         <v>1</v>
       </c>
       <c r="P1175" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="1176" spans="1:16">
@@ -60686,7 +60689,7 @@
         <v>1</v>
       </c>
       <c r="P1176" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="1177" spans="1:16">
@@ -60736,7 +60739,7 @@
         <v>1</v>
       </c>
       <c r="P1177" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="1178" spans="1:16">
@@ -60786,7 +60789,7 @@
         <v>1</v>
       </c>
       <c r="P1178" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="1179" spans="1:16">
@@ -60836,7 +60839,7 @@
         <v>1</v>
       </c>
       <c r="P1179" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="1180" spans="1:16">
@@ -60886,7 +60889,7 @@
         <v>1</v>
       </c>
       <c r="P1180" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="1181" spans="1:16">
@@ -60936,7 +60939,7 @@
         <v>1</v>
       </c>
       <c r="P1181" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="1182" spans="1:16">
@@ -60986,7 +60989,7 @@
         <v>1</v>
       </c>
       <c r="P1182" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="1183" spans="1:16">
@@ -61036,7 +61039,7 @@
         <v>1</v>
       </c>
       <c r="P1183" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="1184" spans="1:16">
@@ -61086,7 +61089,7 @@
         <v>1</v>
       </c>
       <c r="P1184" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="1185" spans="1:16">
@@ -61486,7 +61489,7 @@
         <v>1</v>
       </c>
       <c r="P1192" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="1193" spans="1:16">
@@ -61536,7 +61539,7 @@
         <v>1</v>
       </c>
       <c r="P1193" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="1194" spans="1:16">
@@ -61586,7 +61589,7 @@
         <v>1</v>
       </c>
       <c r="P1194" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="1195" spans="1:16">
@@ -61636,7 +61639,7 @@
         <v>1</v>
       </c>
       <c r="P1195" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="1196" spans="1:16">
@@ -61686,7 +61689,7 @@
         <v>1</v>
       </c>
       <c r="P1196" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="1197" spans="1:16">
@@ -61736,7 +61739,7 @@
         <v>1</v>
       </c>
       <c r="P1197" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="1198" spans="1:16">
@@ -61786,7 +61789,7 @@
         <v>1</v>
       </c>
       <c r="P1198" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="1199" spans="1:16">
@@ -61836,7 +61839,7 @@
         <v>1</v>
       </c>
       <c r="P1199" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="1200" spans="1:16">
@@ -61886,7 +61889,7 @@
         <v>1</v>
       </c>
       <c r="P1200" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="1201" spans="1:16">
@@ -61936,7 +61939,7 @@
         <v>1</v>
       </c>
       <c r="P1201" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="1202" spans="1:16">
@@ -61986,7 +61989,7 @@
         <v>1</v>
       </c>
       <c r="P1202" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="1203" spans="1:16">
@@ -62036,7 +62039,7 @@
         <v>1</v>
       </c>
       <c r="P1203" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="1204" spans="1:16">
@@ -62086,7 +62089,7 @@
         <v>1</v>
       </c>
       <c r="P1204" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="1205" spans="1:16">
@@ -62136,7 +62139,7 @@
         <v>1</v>
       </c>
       <c r="P1205" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="1206" spans="1:16">
@@ -62186,7 +62189,7 @@
         <v>1</v>
       </c>
       <c r="P1206" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="1207" spans="1:16">
@@ -62236,7 +62239,7 @@
         <v>1</v>
       </c>
       <c r="P1207" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="1208" spans="1:16">
@@ -62286,7 +62289,7 @@
         <v>1</v>
       </c>
       <c r="P1208" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="1209" spans="1:16">
@@ -62336,7 +62339,7 @@
         <v>1</v>
       </c>
       <c r="P1209" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="1210" spans="1:16">
@@ -62386,7 +62389,7 @@
         <v>1</v>
       </c>
       <c r="P1210" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="1211" spans="1:16">
@@ -62436,7 +62439,7 @@
         <v>1</v>
       </c>
       <c r="P1211" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="1212" spans="1:16">
@@ -62486,7 +62489,7 @@
         <v>1</v>
       </c>
       <c r="P1212" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="1213" spans="1:16">
@@ -62536,7 +62539,7 @@
         <v>1</v>
       </c>
       <c r="P1213" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="1214" spans="1:16">
@@ -62586,7 +62589,7 @@
         <v>1</v>
       </c>
       <c r="P1214" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="1215" spans="1:16">
@@ -62636,7 +62639,7 @@
         <v>1</v>
       </c>
       <c r="P1215" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="1216" spans="1:16">
@@ -62686,7 +62689,7 @@
         <v>1</v>
       </c>
       <c r="P1216" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="1217" spans="1:16">
@@ -62736,7 +62739,7 @@
         <v>1</v>
       </c>
       <c r="P1217" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="1218" spans="1:16">
@@ -62786,7 +62789,7 @@
         <v>1</v>
       </c>
       <c r="P1218" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="1219" spans="1:16">
@@ -62836,7 +62839,7 @@
         <v>1</v>
       </c>
       <c r="P1219" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="1220" spans="1:16">
@@ -62886,7 +62889,7 @@
         <v>1</v>
       </c>
       <c r="P1220" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="1221" spans="1:16">
@@ -62936,7 +62939,7 @@
         <v>1</v>
       </c>
       <c r="P1221" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="1222" spans="1:16">
@@ -62986,7 +62989,7 @@
         <v>1</v>
       </c>
       <c r="P1222" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="1223" spans="1:16">
@@ -63036,7 +63039,7 @@
         <v>1</v>
       </c>
       <c r="P1223" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="1224" spans="1:16">
@@ -63086,7 +63089,7 @@
         <v>1</v>
       </c>
       <c r="P1224" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="1225" spans="1:16">
@@ -63136,7 +63139,7 @@
         <v>1</v>
       </c>
       <c r="P1225" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="1226" spans="1:16">
@@ -63186,7 +63189,7 @@
         <v>1</v>
       </c>
       <c r="P1226" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="1227" spans="1:16">
@@ -63236,7 +63239,7 @@
         <v>1</v>
       </c>
       <c r="P1227" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="1228" spans="1:16">
@@ -64686,7 +64689,7 @@
         <v>1</v>
       </c>
       <c r="P1256" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="1257" spans="1:16">
@@ -64736,7 +64739,7 @@
         <v>1</v>
       </c>
       <c r="P1257" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="1258" spans="1:16">
@@ -64786,7 +64789,7 @@
         <v>1</v>
       </c>
       <c r="P1258" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="1259" spans="1:16">
@@ -64836,7 +64839,7 @@
         <v>1</v>
       </c>
       <c r="P1259" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="1260" spans="1:16">
@@ -64886,7 +64889,7 @@
         <v>1</v>
       </c>
       <c r="P1260" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="1261" spans="1:16">
@@ -64936,7 +64939,7 @@
         <v>1</v>
       </c>
       <c r="P1261" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="1262" spans="1:16">
@@ -64986,7 +64989,7 @@
         <v>1</v>
       </c>
       <c r="P1262" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="1263" spans="1:16">
@@ -65036,7 +65039,7 @@
         <v>1</v>
       </c>
       <c r="P1263" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="1264" spans="1:16">
@@ -65086,7 +65089,7 @@
         <v>1</v>
       </c>
       <c r="P1264" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="1265" spans="1:16">
@@ -65136,7 +65139,7 @@
         <v>1</v>
       </c>
       <c r="P1265" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="1266" spans="1:16">
@@ -65186,7 +65189,7 @@
         <v>1</v>
       </c>
       <c r="P1266" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="1267" spans="1:16">
@@ -65236,7 +65239,7 @@
         <v>1</v>
       </c>
       <c r="P1267" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="1268" spans="1:16">
@@ -65286,7 +65289,7 @@
         <v>1</v>
       </c>
       <c r="P1268" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="1269" spans="1:16">
@@ -65336,7 +65339,7 @@
         <v>1</v>
       </c>
       <c r="P1269" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="1270" spans="1:16">
@@ -65386,7 +65389,7 @@
         <v>1</v>
       </c>
       <c r="P1270" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="1271" spans="1:16">
@@ -65436,7 +65439,7 @@
         <v>1</v>
       </c>
       <c r="P1271" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="1272" spans="1:16">
@@ -65486,7 +65489,7 @@
         <v>1</v>
       </c>
       <c r="P1272" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1273" spans="1:16">
@@ -65536,7 +65539,7 @@
         <v>1</v>
       </c>
       <c r="P1273" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1274" spans="1:16">
@@ -65586,7 +65589,7 @@
         <v>1</v>
       </c>
       <c r="P1274" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1275" spans="1:16">
@@ -65636,7 +65639,7 @@
         <v>1</v>
       </c>
       <c r="P1275" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1276" spans="1:16">
@@ -65686,7 +65689,7 @@
         <v>1</v>
       </c>
       <c r="P1276" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1277" spans="1:16">
@@ -65736,7 +65739,7 @@
         <v>1</v>
       </c>
       <c r="P1277" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1278" spans="1:16">
@@ -65786,7 +65789,7 @@
         <v>1</v>
       </c>
       <c r="P1278" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1279" spans="1:16">
@@ -65836,7 +65839,7 @@
         <v>1</v>
       </c>
       <c r="P1279" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1280" spans="1:16">
@@ -65886,7 +65889,7 @@
         <v>1</v>
       </c>
       <c r="P1280" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1281" spans="1:16">
@@ -65936,7 +65939,7 @@
         <v>1</v>
       </c>
       <c r="P1281" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1282" spans="1:16">
@@ -65986,7 +65989,7 @@
         <v>1</v>
       </c>
       <c r="P1282" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1283" spans="1:16">
@@ -66036,7 +66039,7 @@
         <v>1</v>
       </c>
       <c r="P1283" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1284" spans="1:16">
@@ -66086,7 +66089,7 @@
         <v>1</v>
       </c>
       <c r="P1284" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1285" spans="1:16">
@@ -66136,7 +66139,7 @@
         <v>1</v>
       </c>
       <c r="P1285" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1286" spans="1:16">
@@ -66186,7 +66189,7 @@
         <v>1</v>
       </c>
       <c r="P1286" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1287" spans="1:16">
@@ -66236,7 +66239,7 @@
         <v>1</v>
       </c>
       <c r="P1287" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1288" spans="1:16">
@@ -66286,7 +66289,7 @@
         <v>1</v>
       </c>
       <c r="P1288" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1289" spans="1:16">
@@ -66336,7 +66339,7 @@
         <v>1</v>
       </c>
       <c r="P1289" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1290" spans="1:16">
@@ -66386,7 +66389,7 @@
         <v>1</v>
       </c>
       <c r="P1290" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1291" spans="1:16">
@@ -66436,7 +66439,7 @@
         <v>1</v>
       </c>
       <c r="P1291" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1292" spans="1:16">
@@ -66486,7 +66489,7 @@
         <v>1</v>
       </c>
       <c r="P1292" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1293" spans="1:16">
@@ -66536,7 +66539,7 @@
         <v>1</v>
       </c>
       <c r="P1293" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1294" spans="1:16">
@@ -66586,7 +66589,7 @@
         <v>1</v>
       </c>
       <c r="P1294" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1295" spans="1:16">
@@ -66636,7 +66639,7 @@
         <v>1</v>
       </c>
       <c r="P1295" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1296" spans="1:16">
@@ -66936,7 +66939,7 @@
         <v>1</v>
       </c>
       <c r="P1301" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1302" spans="1:16">
@@ -66986,7 +66989,7 @@
         <v>1</v>
       </c>
       <c r="P1302" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1303" spans="1:16">
@@ -67036,7 +67039,7 @@
         <v>1</v>
       </c>
       <c r="P1303" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1304" spans="1:16">
@@ -67086,7 +67089,7 @@
         <v>1</v>
       </c>
       <c r="P1304" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1305" spans="1:16">
@@ -67136,7 +67139,7 @@
         <v>1</v>
       </c>
       <c r="P1305" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1306" spans="1:16">
@@ -67186,7 +67189,7 @@
         <v>1</v>
       </c>
       <c r="P1306" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1307" spans="1:16">
@@ -67236,7 +67239,7 @@
         <v>1</v>
       </c>
       <c r="P1307" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1308" spans="1:16">
@@ -68486,7 +68489,7 @@
         <v>1</v>
       </c>
       <c r="P1332" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="1333" spans="1:16">
@@ -68536,7 +68539,7 @@
         <v>1</v>
       </c>
       <c r="P1333" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="1334" spans="1:16">
@@ -68586,7 +68589,7 @@
         <v>1</v>
       </c>
       <c r="P1334" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="1335" spans="1:16">
@@ -68636,7 +68639,7 @@
         <v>1</v>
       </c>
       <c r="P1335" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="1336" spans="1:16">
@@ -68686,7 +68689,7 @@
         <v>1</v>
       </c>
       <c r="P1336" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="1337" spans="1:16">
@@ -68736,7 +68739,7 @@
         <v>1</v>
       </c>
       <c r="P1337" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="1338" spans="1:16">
@@ -68786,7 +68789,7 @@
         <v>1</v>
       </c>
       <c r="P1338" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="1339" spans="1:16">
@@ -68836,7 +68839,7 @@
         <v>1</v>
       </c>
       <c r="P1339" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="1340" spans="1:16">
@@ -68886,7 +68889,7 @@
         <v>1</v>
       </c>
       <c r="P1340" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="1341" spans="1:16">
@@ -70436,7 +70439,7 @@
         <v>1</v>
       </c>
       <c r="P1371" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="1372" spans="1:16">
@@ -70486,7 +70489,7 @@
         <v>1</v>
       </c>
       <c r="P1372" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="1373" spans="1:16">
@@ -70536,7 +70539,7 @@
         <v>1</v>
       </c>
       <c r="P1373" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="1374" spans="1:16">
@@ -70586,7 +70589,7 @@
         <v>1</v>
       </c>
       <c r="P1374" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="1375" spans="1:16">
@@ -70636,7 +70639,7 @@
         <v>1</v>
       </c>
       <c r="P1375" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="1376" spans="1:16">
@@ -70686,7 +70689,7 @@
         <v>1</v>
       </c>
       <c r="P1376" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="1377" spans="1:16">
@@ -70736,7 +70739,7 @@
         <v>1</v>
       </c>
       <c r="P1377" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="1378" spans="1:16">
@@ -71436,7 +71439,7 @@
         <v>1</v>
       </c>
       <c r="P1391" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="1392" spans="1:16">
@@ -71486,7 +71489,7 @@
         <v>1</v>
       </c>
       <c r="P1392" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="1393" spans="1:16">
@@ -71536,7 +71539,7 @@
         <v>1</v>
       </c>
       <c r="P1393" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="1394" spans="1:16">
@@ -71586,7 +71589,7 @@
         <v>1</v>
       </c>
       <c r="P1394" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="1395" spans="1:16">
@@ -71636,7 +71639,7 @@
         <v>1</v>
       </c>
       <c r="P1395" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="1396" spans="1:16">
@@ -71686,7 +71689,7 @@
         <v>1</v>
       </c>
       <c r="P1396" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="1397" spans="1:16">
@@ -71736,7 +71739,7 @@
         <v>1</v>
       </c>
       <c r="P1397" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="1398" spans="1:16">
@@ -71786,7 +71789,7 @@
         <v>1</v>
       </c>
       <c r="P1398" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="1399" spans="1:16">
@@ -71836,7 +71839,7 @@
         <v>1</v>
       </c>
       <c r="P1399" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="1400" spans="1:16">
@@ -71886,7 +71889,7 @@
         <v>1</v>
       </c>
       <c r="P1400" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="1401" spans="1:16">
@@ -71936,7 +71939,7 @@
         <v>1</v>
       </c>
       <c r="P1401" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="1402" spans="1:16">
@@ -71986,7 +71989,7 @@
         <v>1</v>
       </c>
       <c r="P1402" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="1403" spans="1:16">
@@ -72036,7 +72039,7 @@
         <v>1</v>
       </c>
       <c r="P1403" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="1404" spans="1:16">
@@ -72386,7 +72389,7 @@
         <v>1</v>
       </c>
       <c r="P1410" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="1411" spans="1:16">
@@ -72436,7 +72439,7 @@
         <v>1</v>
       </c>
       <c r="P1411" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="1412" spans="1:16">
@@ -72486,7 +72489,7 @@
         <v>1</v>
       </c>
       <c r="P1412" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="1413" spans="1:16">
@@ -72536,7 +72539,7 @@
         <v>1</v>
       </c>
       <c r="P1413" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="1414" spans="1:16">
@@ -72586,7 +72589,7 @@
         <v>1</v>
       </c>
       <c r="P1414" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="1415" spans="1:16">
@@ -72636,7 +72639,7 @@
         <v>1</v>
       </c>
       <c r="P1415" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="1416" spans="1:16">
@@ -73036,7 +73039,7 @@
         <v>1</v>
       </c>
       <c r="P1423" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="1424" spans="1:16">
@@ -73086,7 +73089,7 @@
         <v>1</v>
       </c>
       <c r="P1424" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="1425" spans="1:16">
@@ -73136,7 +73139,7 @@
         <v>1</v>
       </c>
       <c r="P1425" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="1426" spans="1:16">
@@ -73186,7 +73189,7 @@
         <v>1</v>
       </c>
       <c r="P1426" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="1427" spans="1:16">
@@ -73236,7 +73239,7 @@
         <v>1</v>
       </c>
       <c r="P1427" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="1428" spans="1:16">
@@ -73286,7 +73289,7 @@
         <v>1</v>
       </c>
       <c r="P1428" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="1429" spans="1:16">
@@ -73936,7 +73939,7 @@
         <v>1</v>
       </c>
       <c r="P1441" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="1442" spans="1:16">
@@ -73986,7 +73989,7 @@
         <v>1</v>
       </c>
       <c r="P1442" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="1443" spans="1:16">
@@ -74036,7 +74039,7 @@
         <v>1</v>
       </c>
       <c r="P1443" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="1444" spans="1:16">
@@ -74086,7 +74089,7 @@
         <v>1</v>
       </c>
       <c r="P1444" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="1445" spans="1:16">
@@ -74136,7 +74139,7 @@
         <v>1</v>
       </c>
       <c r="P1445" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="1446" spans="1:16">
@@ -74186,7 +74189,7 @@
         <v>1</v>
       </c>
       <c r="P1446" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="1447" spans="1:16">
@@ -74236,7 +74239,7 @@
         <v>1</v>
       </c>
       <c r="P1447" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="1448" spans="1:16">
@@ -74286,7 +74289,7 @@
         <v>1</v>
       </c>
       <c r="P1448" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="1449" spans="1:16">
@@ -74336,7 +74339,7 @@
         <v>1</v>
       </c>
       <c r="P1449" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="1450" spans="1:16">
@@ -74386,7 +74389,7 @@
         <v>1</v>
       </c>
       <c r="P1450" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="1451" spans="1:16">
@@ -74436,7 +74439,7 @@
         <v>1</v>
       </c>
       <c r="P1451" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="1452" spans="1:16">
@@ -74486,7 +74489,7 @@
         <v>1</v>
       </c>
       <c r="P1452" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="1453" spans="1:16">
@@ -74536,7 +74539,7 @@
         <v>1</v>
       </c>
       <c r="P1453" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="1454" spans="1:16">
@@ -74586,7 +74589,7 @@
         <v>1</v>
       </c>
       <c r="P1454" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="1455" spans="1:16">
@@ -74636,7 +74639,7 @@
         <v>1</v>
       </c>
       <c r="P1455" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="1456" spans="1:16">
@@ -74686,7 +74689,7 @@
         <v>1</v>
       </c>
       <c r="P1456" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="1457" spans="1:16">
@@ -74736,7 +74739,7 @@
         <v>1</v>
       </c>
       <c r="P1457" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="1458" spans="1:16">
@@ -74786,7 +74789,7 @@
         <v>1</v>
       </c>
       <c r="P1458" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="1459" spans="1:16">
@@ -74836,7 +74839,7 @@
         <v>1</v>
       </c>
       <c r="P1459" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="1460" spans="1:16">
@@ -74886,7 +74889,7 @@
         <v>1</v>
       </c>
       <c r="P1460" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="1461" spans="1:16">
@@ -75236,7 +75239,7 @@
         <v>1</v>
       </c>
       <c r="P1467" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="1468" spans="1:16">
@@ -75286,7 +75289,7 @@
         <v>1</v>
       </c>
       <c r="P1468" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="1469" spans="1:16">
@@ -75336,7 +75339,7 @@
         <v>1</v>
       </c>
       <c r="P1469" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="1470" spans="1:16">
@@ -75386,7 +75389,7 @@
         <v>1</v>
       </c>
       <c r="P1470" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="1471" spans="1:16">
@@ -75436,7 +75439,7 @@
         <v>1</v>
       </c>
       <c r="P1471" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="1472" spans="1:16">
@@ -75486,7 +75489,7 @@
         <v>1</v>
       </c>
       <c r="P1472" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="1473" spans="1:16">
@@ -75836,7 +75839,7 @@
         <v>1</v>
       </c>
       <c r="P1479" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="1480" spans="1:16">
@@ -75886,7 +75889,7 @@
         <v>1</v>
       </c>
       <c r="P1480" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="1481" spans="1:16">
@@ -75936,7 +75939,7 @@
         <v>1</v>
       </c>
       <c r="P1481" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="1482" spans="1:16">
@@ -75986,7 +75989,7 @@
         <v>1</v>
       </c>
       <c r="P1482" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="1483" spans="1:16">
@@ -76036,7 +76039,7 @@
         <v>1</v>
       </c>
       <c r="P1483" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="1484" spans="1:16">
@@ -76086,7 +76089,7 @@
         <v>1</v>
       </c>
       <c r="P1484" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="1485" spans="1:16">
@@ -76136,7 +76139,7 @@
         <v>1</v>
       </c>
       <c r="P1485" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="1486" spans="1:16">
@@ -76186,7 +76189,7 @@
         <v>1</v>
       </c>
       <c r="P1486" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="1487" spans="1:16">
@@ -76236,7 +76239,7 @@
         <v>1</v>
       </c>
       <c r="P1487" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="1488" spans="1:16">
@@ -76286,7 +76289,7 @@
         <v>1</v>
       </c>
       <c r="P1488" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="1489" spans="1:16">
@@ -76336,7 +76339,7 @@
         <v>1</v>
       </c>
       <c r="P1489" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="1490" spans="1:16">
@@ -76386,7 +76389,7 @@
         <v>1</v>
       </c>
       <c r="P1490" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="1491" spans="1:16">
@@ -76436,7 +76439,7 @@
         <v>1</v>
       </c>
       <c r="P1491" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="1492" spans="1:16">
@@ -76486,7 +76489,7 @@
         <v>1</v>
       </c>
       <c r="P1492" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="1493" spans="1:16">
@@ -76536,7 +76539,7 @@
         <v>1</v>
       </c>
       <c r="P1493" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="1494" spans="1:16">
@@ -76586,7 +76589,7 @@
         <v>1</v>
       </c>
       <c r="P1494" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="1495" spans="1:16">
@@ -76636,7 +76639,7 @@
         <v>1</v>
       </c>
       <c r="P1495" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="1496" spans="1:16">
@@ -76686,7 +76689,7 @@
         <v>1</v>
       </c>
       <c r="P1496" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="1497" spans="1:16">
@@ -76736,7 +76739,7 @@
         <v>1</v>
       </c>
       <c r="P1497" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="1498" spans="1:16">
@@ -76786,7 +76789,7 @@
         <v>1</v>
       </c>
       <c r="P1498" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="1499" spans="1:16">
@@ -76836,7 +76839,7 @@
         <v>1</v>
       </c>
       <c r="P1499" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="1500" spans="1:16">
@@ -76886,7 +76889,7 @@
         <v>1</v>
       </c>
       <c r="P1500" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="1501" spans="1:16">
@@ -76936,7 +76939,7 @@
         <v>1</v>
       </c>
       <c r="P1501" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="1502" spans="1:16">
@@ -76986,7 +76989,7 @@
         <v>1</v>
       </c>
       <c r="P1502" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="1503" spans="1:16">
@@ -77036,7 +77039,7 @@
         <v>1</v>
       </c>
       <c r="P1503" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="1504" spans="1:16">
@@ -77086,7 +77089,7 @@
         <v>1</v>
       </c>
       <c r="P1504" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="1505" spans="1:16">
@@ -77136,7 +77139,7 @@
         <v>1</v>
       </c>
       <c r="P1505" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="1506" spans="1:16">
@@ -77586,7 +77589,7 @@
         <v>1</v>
       </c>
       <c r="P1514" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="1515" spans="1:16">
@@ -77636,7 +77639,7 @@
         <v>1</v>
       </c>
       <c r="P1515" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="1516" spans="1:16">
@@ -77686,7 +77689,7 @@
         <v>1</v>
       </c>
       <c r="P1516" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="1517" spans="1:16">
@@ -77736,7 +77739,7 @@
         <v>1</v>
       </c>
       <c r="P1517" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="1518" spans="1:16">
@@ -77786,7 +77789,7 @@
         <v>1</v>
       </c>
       <c r="P1518" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="1519" spans="1:16">
@@ -77836,7 +77839,7 @@
         <v>1</v>
       </c>
       <c r="P1519" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="1520" spans="1:16">
@@ -77886,7 +77889,7 @@
         <v>1</v>
       </c>
       <c r="P1520" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="1521" spans="1:16">
@@ -77936,7 +77939,7 @@
         <v>1</v>
       </c>
       <c r="P1521" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="1522" spans="1:16">
@@ -77986,7 +77989,7 @@
         <v>1</v>
       </c>
       <c r="P1522" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="1523" spans="1:16">
@@ -78036,7 +78039,7 @@
         <v>1</v>
       </c>
       <c r="P1523" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="1524" spans="1:16">
@@ -78086,7 +78089,7 @@
         <v>1</v>
       </c>
       <c r="P1524" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="1525" spans="1:16">
@@ -78136,7 +78139,7 @@
         <v>1</v>
       </c>
       <c r="P1525" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="1526" spans="1:16">
@@ -78186,7 +78189,7 @@
         <v>1</v>
       </c>
       <c r="P1526" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="1527" spans="1:16">
@@ -78236,7 +78239,7 @@
         <v>1</v>
       </c>
       <c r="P1527" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="1528" spans="1:16">
@@ -78286,7 +78289,7 @@
         <v>1</v>
       </c>
       <c r="P1528" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="1529" spans="1:16">
@@ -78336,7 +78339,7 @@
         <v>1</v>
       </c>
       <c r="P1529" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="1530" spans="1:16">
@@ -78386,7 +78389,7 @@
         <v>1</v>
       </c>
       <c r="P1530" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="1531" spans="1:16">
@@ -78436,7 +78439,7 @@
         <v>1</v>
       </c>
       <c r="P1531" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="1532" spans="1:16">
@@ -78486,7 +78489,7 @@
         <v>1</v>
       </c>
       <c r="P1532" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="1533" spans="1:16">
@@ -78536,7 +78539,7 @@
         <v>1</v>
       </c>
       <c r="P1533" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="1534" spans="1:16">
@@ -78586,7 +78589,7 @@
         <v>1</v>
       </c>
       <c r="P1534" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="1535" spans="1:16">
@@ -78636,7 +78639,7 @@
         <v>1</v>
       </c>
       <c r="P1535" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="1536" spans="1:16">
@@ -78686,7 +78689,7 @@
         <v>1</v>
       </c>
       <c r="P1536" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="1537" spans="1:16">
@@ -78736,7 +78739,7 @@
         <v>1</v>
       </c>
       <c r="P1537" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="1538" spans="1:16">
@@ -78786,7 +78789,7 @@
         <v>1</v>
       </c>
       <c r="P1538" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="1539" spans="1:16">
@@ -78836,7 +78839,7 @@
         <v>1</v>
       </c>
       <c r="P1539" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="1540" spans="1:16">
@@ -78886,7 +78889,7 @@
         <v>1</v>
       </c>
       <c r="P1540" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="1541" spans="1:16">
@@ -78936,7 +78939,7 @@
         <v>1</v>
       </c>
       <c r="P1541" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="1542" spans="1:16">
@@ -78986,7 +78989,7 @@
         <v>1</v>
       </c>
       <c r="P1542" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="1543" spans="1:16">
@@ -79036,7 +79039,7 @@
         <v>1</v>
       </c>
       <c r="P1543" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="1544" spans="1:16">
@@ -79086,7 +79089,7 @@
         <v>1</v>
       </c>
       <c r="P1544" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="1545" spans="1:16">
@@ -79136,7 +79139,7 @@
         <v>1</v>
       </c>
       <c r="P1545" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="1546" spans="1:16">
@@ -79186,7 +79189,7 @@
         <v>1</v>
       </c>
       <c r="P1546" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="1547" spans="1:16">
@@ -79236,7 +79239,7 @@
         <v>1</v>
       </c>
       <c r="P1547" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="1548" spans="1:16">
@@ -79286,7 +79289,7 @@
         <v>1</v>
       </c>
       <c r="P1548" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="1549" spans="1:16">
@@ -79336,7 +79339,7 @@
         <v>1</v>
       </c>
       <c r="P1549" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="1550" spans="1:16">
@@ -79386,7 +79389,7 @@
         <v>1</v>
       </c>
       <c r="P1550" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="1551" spans="1:16">
@@ -79436,7 +79439,7 @@
         <v>1</v>
       </c>
       <c r="P1551" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="1552" spans="1:16">
@@ -79486,7 +79489,7 @@
         <v>1</v>
       </c>
       <c r="P1552" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="1553" spans="1:16">
@@ -79536,7 +79539,7 @@
         <v>1</v>
       </c>
       <c r="P1553" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="1554" spans="1:16">
@@ -79586,7 +79589,7 @@
         <v>1</v>
       </c>
       <c r="P1554" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="1555" spans="1:16">
@@ -79636,7 +79639,7 @@
         <v>1</v>
       </c>
       <c r="P1555" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="1556" spans="1:16">
@@ -79686,7 +79689,7 @@
         <v>1</v>
       </c>
       <c r="P1556" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="1557" spans="1:16">
@@ -79736,7 +79739,7 @@
         <v>1</v>
       </c>
       <c r="P1557" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="1558" spans="1:16">
@@ -79786,7 +79789,7 @@
         <v>1</v>
       </c>
       <c r="P1558" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="1559" spans="1:16">
@@ -79836,7 +79839,7 @@
         <v>1</v>
       </c>
       <c r="P1559" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="1560" spans="1:16">
@@ -79886,7 +79889,7 @@
         <v>1</v>
       </c>
       <c r="P1560" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="1561" spans="1:16">
@@ -80336,7 +80339,7 @@
         <v>1</v>
       </c>
       <c r="P1569" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="1570" spans="1:16">
@@ -80386,7 +80389,7 @@
         <v>1</v>
       </c>
       <c r="P1570" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="1571" spans="1:16">
@@ -80436,7 +80439,7 @@
         <v>1</v>
       </c>
       <c r="P1571" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="1572" spans="1:16">
@@ -80486,7 +80489,7 @@
         <v>1</v>
       </c>
       <c r="P1572" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="1573" spans="1:16">
@@ -80536,7 +80539,7 @@
         <v>1</v>
       </c>
       <c r="P1573" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="1574" spans="1:16">
@@ -80586,7 +80589,7 @@
         <v>1</v>
       </c>
       <c r="P1574" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="1575" spans="1:16">
@@ -80636,7 +80639,7 @@
         <v>1</v>
       </c>
       <c r="P1575" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="1576" spans="1:16">
@@ -80686,7 +80689,7 @@
         <v>1</v>
       </c>
       <c r="P1576" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="1577" spans="1:16">
@@ -80736,7 +80739,7 @@
         <v>1</v>
       </c>
       <c r="P1577" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="1578" spans="1:16">
@@ -80786,7 +80789,7 @@
         <v>1</v>
       </c>
       <c r="P1578" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="1579" spans="1:16">
@@ -80836,7 +80839,7 @@
         <v>1</v>
       </c>
       <c r="P1579" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="1580" spans="1:16">
@@ -80886,7 +80889,7 @@
         <v>1</v>
       </c>
       <c r="P1580" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="1581" spans="1:16">
@@ -80936,7 +80939,7 @@
         <v>1</v>
       </c>
       <c r="P1581" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="1582" spans="1:16">
@@ -80986,7 +80989,7 @@
         <v>1</v>
       </c>
       <c r="P1582" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="1583" spans="1:16">
@@ -81036,7 +81039,7 @@
         <v>1</v>
       </c>
       <c r="P1583" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="1584" spans="1:16">
@@ -81086,7 +81089,7 @@
         <v>1</v>
       </c>
       <c r="P1584" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="1585" spans="1:16">
@@ -81136,7 +81139,7 @@
         <v>1</v>
       </c>
       <c r="P1585" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="1586" spans="1:16">
@@ -81686,7 +81689,7 @@
         <v>1</v>
       </c>
       <c r="P1596" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="1597" spans="1:16">
@@ -81736,7 +81739,7 @@
         <v>1</v>
       </c>
       <c r="P1597" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="1598" spans="1:16">
@@ -81786,7 +81789,7 @@
         <v>1</v>
       </c>
       <c r="P1598" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="1599" spans="1:16">
@@ -81836,7 +81839,7 @@
         <v>1</v>
       </c>
       <c r="P1599" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="1600" spans="1:16">
@@ -81886,7 +81889,7 @@
         <v>1</v>
       </c>
       <c r="P1600" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="1601" spans="1:16">
@@ -81936,7 +81939,7 @@
         <v>1</v>
       </c>
       <c r="P1601" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="1602" spans="1:16">
@@ -81986,7 +81989,7 @@
         <v>1</v>
       </c>
       <c r="P1602" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="1603" spans="1:16">
@@ -82036,7 +82039,7 @@
         <v>1</v>
       </c>
       <c r="P1603" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="1604" spans="1:16">
@@ -82086,7 +82089,7 @@
         <v>1</v>
       </c>
       <c r="P1604" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1605" spans="1:16">
@@ -82136,7 +82139,7 @@
         <v>1</v>
       </c>
       <c r="P1605" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1606" spans="1:16">
@@ -82186,7 +82189,7 @@
         <v>1</v>
       </c>
       <c r="P1606" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1607" spans="1:16">
@@ -82236,7 +82239,7 @@
         <v>1</v>
       </c>
       <c r="P1607" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1608" spans="1:16">
@@ -82286,7 +82289,7 @@
         <v>1</v>
       </c>
       <c r="P1608" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1609" spans="1:16">
@@ -82336,7 +82339,7 @@
         <v>1</v>
       </c>
       <c r="P1609" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1610" spans="1:16">
@@ -82386,7 +82389,7 @@
         <v>1</v>
       </c>
       <c r="P1610" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1611" spans="1:16">
@@ -82436,7 +82439,7 @@
         <v>1</v>
       </c>
       <c r="P1611" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="1612" spans="1:16">
@@ -82486,7 +82489,7 @@
         <v>1</v>
       </c>
       <c r="P1612" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="1613" spans="1:16">
@@ -82536,7 +82539,7 @@
         <v>1</v>
       </c>
       <c r="P1613" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="1614" spans="1:16">
@@ -82586,7 +82589,7 @@
         <v>1</v>
       </c>
       <c r="P1614" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="1615" spans="1:16">
@@ -82636,7 +82639,7 @@
         <v>1</v>
       </c>
       <c r="P1615" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="1616" spans="1:16">
@@ -82686,7 +82689,7 @@
         <v>1</v>
       </c>
       <c r="P1616" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="1617" spans="1:16">
@@ -82736,7 +82739,7 @@
         <v>1</v>
       </c>
       <c r="P1617" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="1618" spans="1:16">
@@ -83386,7 +83389,7 @@
         <v>1</v>
       </c>
       <c r="P1630" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="1631" spans="1:16">
@@ -83436,7 +83439,7 @@
         <v>1</v>
       </c>
       <c r="P1631" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="1632" spans="1:16">
@@ -83486,7 +83489,7 @@
         <v>1</v>
       </c>
       <c r="P1632" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="1633" spans="1:16">
@@ -83536,7 +83539,7 @@
         <v>1</v>
       </c>
       <c r="P1633" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="1634" spans="1:16">
@@ -83586,7 +83589,7 @@
         <v>1</v>
       </c>
       <c r="P1634" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="1635" spans="1:16">
@@ -83636,7 +83639,7 @@
         <v>1</v>
       </c>
       <c r="P1635" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="1636" spans="1:16">
@@ -83686,7 +83689,7 @@
         <v>1</v>
       </c>
       <c r="P1636" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="1637" spans="1:16">
@@ -83736,7 +83739,7 @@
         <v>1</v>
       </c>
       <c r="P1637" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="1638" spans="1:16">
@@ -83786,7 +83789,7 @@
         <v>1</v>
       </c>
       <c r="P1638" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="1639" spans="1:16">
@@ -83836,7 +83839,7 @@
         <v>1</v>
       </c>
       <c r="P1639" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="1640" spans="1:16">
@@ -83886,7 +83889,7 @@
         <v>1</v>
       </c>
       <c r="P1640" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="1641" spans="1:16">
@@ -83936,7 +83939,7 @@
         <v>1</v>
       </c>
       <c r="P1641" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="1642" spans="1:16">
@@ -83986,7 +83989,7 @@
         <v>1</v>
       </c>
       <c r="P1642" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="1643" spans="1:16">
@@ -84036,7 +84039,7 @@
         <v>1</v>
       </c>
       <c r="P1643" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="1644" spans="1:16">
@@ -84086,7 +84089,7 @@
         <v>1</v>
       </c>
       <c r="P1644" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="1645" spans="1:16">
@@ -84100,10 +84103,10 @@
         <v>3.205894326737976</v>
       </c>
       <c r="D1645" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E1645">
-        <v>3.10836389992392</v>
+        <v>3.090172558389514</v>
       </c>
       <c r="F1645">
         <v>-1</v>
@@ -84112,10 +84115,10 @@
         <v>0.007354105673262025</v>
       </c>
       <c r="H1645">
-        <v>0.007231636100076081</v>
+        <v>0.007329827441610486</v>
       </c>
       <c r="I1645">
-        <v>0.09753042681405599</v>
+        <v>0.1157217683484615</v>
       </c>
       <c r="J1645">
         <v>0.4156524395314679</v>
@@ -84127,16 +84130,16 @@
         <v>5.28</v>
       </c>
       <c r="M1645">
-        <v>4.96</v>
+        <v>5.1</v>
       </c>
       <c r="N1645">
-        <v>5.17</v>
+        <v>5.21</v>
       </c>
       <c r="O1645">
         <v>1</v>
       </c>
       <c r="P1645" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="1646" spans="1:16">
@@ -84186,7 +84189,7 @@
         <v>1</v>
       </c>
       <c r="P1646" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="1647" spans="1:16">
@@ -84194,49 +84197,49 @@
         <v>5</v>
       </c>
       <c r="B1647" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C1647">
-        <v>3.011250973317765</v>
+        <v>2.979564022108394</v>
       </c>
       <c r="D1647" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E1647">
-        <v>2.916190119689653</v>
+        <v>2.896190119689654</v>
       </c>
       <c r="F1647">
         <v>1</v>
       </c>
       <c r="G1647">
-        <v>0.006768749026682234</v>
+        <v>0.006720435977891606</v>
       </c>
       <c r="H1647">
-        <v>0.006623809880310346</v>
+        <v>0.006603809880310347</v>
       </c>
       <c r="I1647">
-        <v>-0.09506085362811234</v>
+        <v>-0.08337390241874054</v>
       </c>
       <c r="J1647">
         <v>0.4156524395314679</v>
       </c>
       <c r="K1647">
-        <v>4.52</v>
+        <v>4.5</v>
       </c>
       <c r="L1647">
-        <v>4.89</v>
+        <v>4.85</v>
       </c>
       <c r="M1647">
         <v>4.46</v>
       </c>
       <c r="N1647">
-        <v>4.77</v>
+        <v>4.75</v>
       </c>
       <c r="O1647">
         <v>1</v>
       </c>
       <c r="P1647" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="1648" spans="1:16">
@@ -84286,7 +84289,7 @@
         <v>1</v>
       </c>
       <c r="P1648" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="1649" spans="1:16">
@@ -84336,7 +84339,7 @@
         <v>1</v>
       </c>
       <c r="P1649" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="1650" spans="1:16">
@@ -84386,7 +84389,7 @@
         <v>1</v>
       </c>
       <c r="P1650" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="1651" spans="1:16">
@@ -84400,10 +84403,10 @@
         <v>3.210382551468172</v>
       </c>
       <c r="D1651" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E1651">
-        <v>3.112825141339105</v>
+        <v>3.094759721941418</v>
       </c>
       <c r="F1651">
         <v>-1</v>
@@ -84412,10 +84415,10 @@
         <v>0.007349617448531829</v>
       </c>
       <c r="H1651">
-        <v>0.007227174858660895</v>
+        <v>0.007325240278058582</v>
       </c>
       <c r="I1651">
-        <v>0.09755741012906727</v>
+        <v>0.1156228295267536</v>
       </c>
       <c r="J1651">
         <v>0.4147529956977611</v>
@@ -84427,16 +84430,16 @@
         <v>5.28</v>
       </c>
       <c r="M1651">
-        <v>4.96</v>
+        <v>5.1</v>
       </c>
       <c r="N1651">
-        <v>5.17</v>
+        <v>5.21</v>
       </c>
       <c r="O1651">
         <v>1</v>
       </c>
       <c r="P1651" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="1652" spans="1:16">
@@ -84486,7 +84489,7 @@
         <v>1</v>
       </c>
       <c r="P1652" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="1653" spans="1:16">
@@ -84494,49 +84497,49 @@
         <v>5</v>
       </c>
       <c r="B1653" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C1653">
-        <v>3.01531645944612</v>
+        <v>2.983611519360075</v>
       </c>
       <c r="D1653" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E1653">
-        <v>2.920201639187985</v>
+        <v>2.900201639187985</v>
       </c>
       <c r="F1653">
         <v>1</v>
       </c>
       <c r="G1653">
-        <v>0.00676468354055388</v>
+        <v>0.006716388480639925</v>
       </c>
       <c r="H1653">
-        <v>0.006619798360812014</v>
+        <v>0.006599798360812015</v>
       </c>
       <c r="I1653">
-        <v>-0.09511482025813489</v>
+        <v>-0.0834098801720895</v>
       </c>
       <c r="J1653">
         <v>0.4147529956977611</v>
       </c>
       <c r="K1653">
-        <v>4.52</v>
+        <v>4.5</v>
       </c>
       <c r="L1653">
-        <v>4.89</v>
+        <v>4.85</v>
       </c>
       <c r="M1653">
         <v>4.46</v>
       </c>
       <c r="N1653">
-        <v>4.77</v>
+        <v>4.75</v>
       </c>
       <c r="O1653">
         <v>1</v>
       </c>
       <c r="P1653" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="1654" spans="1:16">
@@ -84586,7 +84589,7 @@
         <v>1</v>
       </c>
       <c r="P1654" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1655" spans="1:16">
@@ -84636,7 +84639,7 @@
         <v>1</v>
       </c>
       <c r="P1655" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1656" spans="1:16">
@@ -84686,7 +84689,7 @@
         <v>1</v>
       </c>
       <c r="P1656" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1657" spans="1:16">
@@ -84700,10 +84703,10 @@
         <v>3.208496865904525</v>
       </c>
       <c r="D1657" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E1657">
-        <v>3.110950792562414</v>
+        <v>3.092832468158933</v>
       </c>
       <c r="F1657">
         <v>-1</v>
@@ -84712,10 +84715,10 @@
         <v>0.007351503134095476</v>
       </c>
       <c r="H1657">
-        <v>0.007229049207437587</v>
+        <v>0.007327167531841067</v>
       </c>
       <c r="I1657">
-        <v>0.09754607334211141</v>
+        <v>0.1156643977455918</v>
       </c>
       <c r="J1657">
         <v>0.4151308885962876</v>
@@ -84727,16 +84730,16 @@
         <v>5.28</v>
       </c>
       <c r="M1657">
-        <v>4.96</v>
+        <v>5.1</v>
       </c>
       <c r="N1657">
-        <v>5.17</v>
+        <v>5.21</v>
       </c>
       <c r="O1657">
         <v>1</v>
       </c>
       <c r="P1657" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1658" spans="1:16">
@@ -84786,7 +84789,7 @@
         <v>1</v>
       </c>
       <c r="P1658" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1659" spans="1:16">
@@ -84794,49 +84797,49 @@
         <v>5</v>
       </c>
       <c r="B1659" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C1659">
-        <v>3.01360838354478</v>
+        <v>2.981911001316706</v>
       </c>
       <c r="D1659" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E1659">
-        <v>2.918516236860557</v>
+        <v>2.898516236860558</v>
       </c>
       <c r="F1659">
         <v>1</v>
       </c>
       <c r="G1659">
-        <v>0.006766391616455219</v>
+        <v>0.006718088998683295</v>
       </c>
       <c r="H1659">
-        <v>0.006621483763139442</v>
+        <v>0.006601483763139442</v>
       </c>
       <c r="I1659">
-        <v>-0.09509214668422317</v>
+        <v>-0.08339476445614791</v>
       </c>
       <c r="J1659">
         <v>0.4151308885962876</v>
       </c>
       <c r="K1659">
-        <v>4.52</v>
+        <v>4.5</v>
       </c>
       <c r="L1659">
-        <v>4.89</v>
+        <v>4.85</v>
       </c>
       <c r="M1659">
         <v>4.46</v>
       </c>
       <c r="N1659">
-        <v>4.77</v>
+        <v>4.75</v>
       </c>
       <c r="O1659">
         <v>1</v>
       </c>
       <c r="P1659" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1660" spans="1:16">
@@ -84886,7 +84889,7 @@
         <v>1</v>
       </c>
       <c r="P1660" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="1661" spans="1:16">
@@ -84936,7 +84939,7 @@
         <v>1</v>
       </c>
       <c r="P1661" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="1662" spans="1:16">
@@ -84986,7 +84989,7 @@
         <v>1</v>
       </c>
       <c r="P1662" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="1663" spans="1:16">
@@ -85000,10 +85003,10 @@
         <v>3.203027743507989</v>
       </c>
       <c r="D1663" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E1663">
-        <v>3.105514550661248</v>
+        <v>3.087242783946041</v>
       </c>
       <c r="F1663">
         <v>-1</v>
@@ -85012,10 +85015,10 @@
         <v>0.007356972256492011</v>
       </c>
       <c r="H1663">
-        <v>0.007234485449338753</v>
+        <v>0.007332757216053959</v>
       </c>
       <c r="I1663">
-        <v>0.09751319284674143</v>
+        <v>0.1157849595619482</v>
       </c>
       <c r="J1663">
         <v>0.4162269051086194</v>
@@ -85027,16 +85030,16 @@
         <v>5.28</v>
       </c>
       <c r="M1663">
-        <v>4.96</v>
+        <v>5.1</v>
       </c>
       <c r="N1663">
-        <v>5.17</v>
+        <v>5.21</v>
       </c>
       <c r="O1663">
         <v>1</v>
       </c>
       <c r="P1663" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="1664" spans="1:16">
@@ -85086,7 +85089,7 @@
         <v>1</v>
       </c>
       <c r="P1664" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="1665" spans="1:16">
@@ -85094,49 +85097,49 @@
         <v>5</v>
       </c>
       <c r="B1665" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C1665">
-        <v>3.00865438890904</v>
+        <v>2.976978927011213</v>
       </c>
       <c r="D1665" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E1665">
-        <v>2.913628003215557</v>
+        <v>2.893628003215558</v>
       </c>
       <c r="F1665">
         <v>1</v>
       </c>
       <c r="G1665">
-        <v>0.00677134561109096</v>
+        <v>0.006723021072988787</v>
       </c>
       <c r="H1665">
-        <v>0.006626371996784442</v>
+        <v>0.006606371996784443</v>
       </c>
       <c r="I1665">
-        <v>-0.09502638569348276</v>
+        <v>-0.0833509237956549</v>
       </c>
       <c r="J1665">
         <v>0.4162269051086194</v>
       </c>
       <c r="K1665">
-        <v>4.52</v>
+        <v>4.5</v>
       </c>
       <c r="L1665">
-        <v>4.89</v>
+        <v>4.85</v>
       </c>
       <c r="M1665">
         <v>4.46</v>
       </c>
       <c r="N1665">
-        <v>4.77</v>
+        <v>4.75</v>
       </c>
       <c r="O1665">
         <v>1</v>
       </c>
       <c r="P1665" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="1666" spans="1:16">
@@ -85186,7 +85189,7 @@
         <v>1</v>
       </c>
       <c r="P1666" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="1667" spans="1:16">
@@ -85236,7 +85239,7 @@
         <v>1</v>
       </c>
       <c r="P1667" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="1668" spans="1:16">
@@ -85286,7 +85289,7 @@
         <v>1</v>
       </c>
       <c r="P1668" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="1669" spans="1:16">
@@ -85336,7 +85339,7 @@
         <v>1</v>
       </c>
       <c r="P1669" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="1670" spans="1:16">
@@ -85386,7 +85389,7 @@
         <v>1</v>
       </c>
       <c r="P1670" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="1671" spans="1:16">
@@ -85394,49 +85397,49 @@
         <v>5</v>
       </c>
       <c r="B1671" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C1671">
-        <v>2.996556178561847</v>
+        <v>2.96493424856821</v>
       </c>
       <c r="D1671" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E1671">
-        <v>2.901690388580938</v>
+        <v>2.881690388580938</v>
       </c>
       <c r="F1671">
         <v>1</v>
       </c>
       <c r="G1671">
-        <v>0.006783443821438152</v>
+        <v>0.006735065751431789</v>
       </c>
       <c r="H1671">
-        <v>0.006638309611419061</v>
+        <v>0.006618309611419062</v>
       </c>
       <c r="I1671">
-        <v>-0.09486578998090955</v>
+        <v>-0.08324385998727202</v>
       </c>
       <c r="J1671">
         <v>0.4189035003181754</v>
       </c>
       <c r="K1671">
-        <v>4.52</v>
+        <v>4.5</v>
       </c>
       <c r="L1671">
-        <v>4.89</v>
+        <v>4.85</v>
       </c>
       <c r="M1671">
         <v>4.46</v>
       </c>
       <c r="N1671">
-        <v>4.77</v>
+        <v>4.75</v>
       </c>
       <c r="O1671">
         <v>1</v>
       </c>
       <c r="P1671" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="1672" spans="1:16">
@@ -85486,7 +85489,7 @@
         <v>1</v>
       </c>
       <c r="P1672" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="1673" spans="1:16">
@@ -85536,7 +85539,7 @@
         <v>1</v>
       </c>
       <c r="P1673" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="1674" spans="1:16">
@@ -85586,7 +85589,7 @@
         <v>1</v>
       </c>
       <c r="P1674" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="1675" spans="1:16">
@@ -85636,7 +85639,7 @@
         <v>1</v>
       </c>
       <c r="P1675" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="1676" spans="1:16">
@@ -85686,7 +85689,7 @@
         <v>1</v>
       </c>
       <c r="P1676" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="1677" spans="1:16">
@@ -85736,7 +85739,7 @@
         <v>1</v>
       </c>
       <c r="P1677" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="1678" spans="1:16">
@@ -85786,7 +85789,7 @@
         <v>1</v>
       </c>
       <c r="P1678" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="1679" spans="1:16">
@@ -85836,7 +85839,7 @@
         <v>1</v>
       </c>
       <c r="P1679" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="1680" spans="1:16">
@@ -85886,7 +85889,7 @@
         <v>1</v>
       </c>
       <c r="P1680" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="1681" spans="1:16">
@@ -85936,7 +85939,7 @@
         <v>1</v>
       </c>
       <c r="P1681" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="1682" spans="1:16">
@@ -85950,10 +85953,10 @@
         <v>2.928533988135483</v>
       </c>
       <c r="D1682" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E1682">
-        <v>2.845613686018724</v>
+        <v>2.826963308372774</v>
       </c>
       <c r="F1682">
         <v>1</v>
@@ -85962,10 +85965,10 @@
         <v>0.006771466011864516</v>
       </c>
       <c r="H1682">
-        <v>0.006654386313981277</v>
+        <v>0.006593036691627226</v>
       </c>
       <c r="I1682">
-        <v>-0.08292030211675971</v>
+        <v>-0.1015706797627094</v>
       </c>
       <c r="J1682">
         <v>0.4269924470810036</v>
@@ -85977,16 +85980,16 @@
         <v>4.85</v>
       </c>
       <c r="M1682">
-        <v>4.46</v>
+        <v>4.41</v>
       </c>
       <c r="N1682">
-        <v>4.75</v>
+        <v>4.71</v>
       </c>
       <c r="O1682">
         <v>1</v>
       </c>
       <c r="P1682" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="1683" spans="1:16">
@@ -86000,10 +86003,10 @@
         <v>3.186622510496457</v>
       </c>
       <c r="D1683" t="s">
-        <v>337</v>
+        <v>189</v>
       </c>
       <c r="E1683">
-        <v>3.062390493211387</v>
+        <v>2.996246631491949</v>
       </c>
       <c r="F1683">
         <v>-1</v>
@@ -86012,10 +86015,10 @@
         <v>0.007833377489503543</v>
       </c>
       <c r="H1683">
-        <v>0.007717609506788612</v>
+        <v>0.007583753368508052</v>
       </c>
       <c r="I1683">
-        <v>0.1242320172850704</v>
+        <v>0.1903758790045083</v>
       </c>
       <c r="J1683">
         <v>0.4232017285070205</v>
@@ -86027,16 +86030,16 @@
         <v>5.51</v>
       </c>
       <c r="M1683">
-        <v>5.5</v>
+        <v>5.42</v>
       </c>
       <c r="N1683">
-        <v>5.39</v>
+        <v>5.29</v>
       </c>
       <c r="O1683">
         <v>1</v>
       </c>
       <c r="P1683" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="1684" spans="1:16">
@@ -86086,7 +86089,7 @@
         <v>1</v>
       </c>
       <c r="P1684" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="1685" spans="1:16">
@@ -86136,7 +86139,7 @@
         <v>1</v>
       </c>
       <c r="P1685" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="1686" spans="1:16">
@@ -86186,7 +86189,7 @@
         <v>1</v>
       </c>
       <c r="P1686" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="1687" spans="1:16">
@@ -86200,10 +86203,10 @@
         <v>2.945592221718407</v>
       </c>
       <c r="D1687" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E1687">
-        <v>2.862520290858688</v>
+        <v>2.84368037728404</v>
       </c>
       <c r="F1687">
         <v>1</v>
@@ -86212,10 +86215,10 @@
         <v>0.006754407778281592</v>
       </c>
       <c r="H1687">
-        <v>0.006637479709141312</v>
+        <v>0.00657631962271596</v>
       </c>
       <c r="I1687">
-        <v>-0.08307193085971898</v>
+        <v>-0.1019118444343676</v>
       </c>
       <c r="J1687">
         <v>0.4232017285070205</v>
@@ -86227,16 +86230,16 @@
         <v>4.85</v>
       </c>
       <c r="M1687">
-        <v>4.46</v>
+        <v>4.41</v>
       </c>
       <c r="N1687">
-        <v>4.75</v>
+        <v>4.71</v>
       </c>
       <c r="O1687">
         <v>1</v>
       </c>
       <c r="P1687" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
